--- a/2022/SAMSUNG/JULY/27.07.2022/SAMSUNG Bank Statement July-2022.xlsx
+++ b/2022/SAMSUNG/JULY/27.07.2022/SAMSUNG Bank Statement July-2022.xlsx
@@ -174,7 +174,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="529" uniqueCount="258">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="536" uniqueCount="263">
   <si>
     <t>Date</t>
   </si>
@@ -948,6 +948,21 @@
   </si>
   <si>
     <t>A.M Tipu Boss(+)</t>
+  </si>
+  <si>
+    <t>Exchange</t>
+  </si>
+  <si>
+    <t>Exchange+Phone</t>
+  </si>
+  <si>
+    <t>M12+C35</t>
+  </si>
+  <si>
+    <t>Infiltaration Product</t>
+  </si>
+  <si>
+    <t>21.06.2022</t>
   </si>
 </sst>
 </file>
@@ -3263,9 +3278,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="36" fillId="46" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="11" fillId="47" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="1" fontId="37" fillId="42" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -3357,210 +3369,255 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="41" fillId="42" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="33" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="47" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="47" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="47" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="37" fillId="47" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="47" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="39" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="44" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="54" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="1" fontId="32" fillId="0" borderId="56" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="11" fillId="42" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="47" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="32" fillId="47" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="32" fillId="47" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="36" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="37" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="35" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="35" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="35" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="35" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="17" fontId="11" fillId="0" borderId="36" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="17" fontId="11" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="17" fontId="11" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="36" fillId="35" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="36" fillId="35" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="36" fillId="35" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="36" fillId="35" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="35" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="35" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="37" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="37" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="34" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="34" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="37" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="41" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="41" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="41" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="44" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="44" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="44" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="43" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="43" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="43" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="42" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="53" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="47" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="47" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="47" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="33" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="47" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="47" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="47" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="37" fillId="47" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="47" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="39" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="47" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="44" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="54" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="1" fontId="32" fillId="0" borderId="56" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="36" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="37" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="35" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="35" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="35" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="35" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="40" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="17" fontId="11" fillId="0" borderId="36" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="17" fontId="11" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="17" fontId="11" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="36" fillId="35" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="36" fillId="35" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="36" fillId="35" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="36" fillId="35" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="35" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="35" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="37" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="37" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="34" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="34" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="37" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="41" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="41" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="41" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="42" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="53" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -3582,66 +3639,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="53" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="47" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="44" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="44" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="44" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="43" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="43" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="43" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="11" fillId="42" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -3660,10 +3660,25 @@
     <xf numFmtId="0" fontId="46" fillId="42" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="47" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="42" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="32" fillId="47" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="42" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="42" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="47" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="47" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="47" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="42" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -4140,33 +4155,33 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="20.25" customHeight="1">
-      <c r="A1" s="396"/>
-      <c r="B1" s="396"/>
-      <c r="C1" s="396"/>
-      <c r="D1" s="396"/>
-      <c r="E1" s="396"/>
-      <c r="F1" s="396"/>
+      <c r="A1" s="395"/>
+      <c r="B1" s="395"/>
+      <c r="C1" s="395"/>
+      <c r="D1" s="395"/>
+      <c r="E1" s="395"/>
+      <c r="F1" s="395"/>
     </row>
     <row r="2" spans="1:8" ht="20.25">
-      <c r="A2" s="397"/>
-      <c r="B2" s="394" t="s">
+      <c r="A2" s="396"/>
+      <c r="B2" s="393" t="s">
         <v>14</v>
       </c>
-      <c r="C2" s="394"/>
-      <c r="D2" s="394"/>
-      <c r="E2" s="394"/>
+      <c r="C2" s="393"/>
+      <c r="D2" s="393"/>
+      <c r="E2" s="393"/>
     </row>
     <row r="3" spans="1:8" ht="16.5" customHeight="1">
-      <c r="A3" s="397"/>
-      <c r="B3" s="395" t="s">
+      <c r="A3" s="396"/>
+      <c r="B3" s="394" t="s">
         <v>42</v>
       </c>
-      <c r="C3" s="395"/>
-      <c r="D3" s="395"/>
-      <c r="E3" s="395"/>
+      <c r="C3" s="394"/>
+      <c r="D3" s="394"/>
+      <c r="E3" s="394"/>
     </row>
     <row r="4" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A4" s="397"/>
+      <c r="A4" s="396"/>
       <c r="B4" s="22" t="s">
         <v>0</v>
       </c>
@@ -4184,7 +4199,7 @@
       </c>
     </row>
     <row r="5" spans="1:8">
-      <c r="A5" s="397"/>
+      <c r="A5" s="396"/>
       <c r="B5" s="24" t="s">
         <v>3</v>
       </c>
@@ -4202,7 +4217,7 @@
       <c r="G5" s="2"/>
     </row>
     <row r="6" spans="1:8">
-      <c r="A6" s="397"/>
+      <c r="A6" s="396"/>
       <c r="B6" s="26"/>
       <c r="C6" s="25"/>
       <c r="D6" s="25"/>
@@ -4214,7 +4229,7 @@
       <c r="G6" s="19"/>
     </row>
     <row r="7" spans="1:8">
-      <c r="A7" s="397"/>
+      <c r="A7" s="396"/>
       <c r="B7" s="26" t="s">
         <v>40</v>
       </c>
@@ -4233,7 +4248,7 @@
       <c r="H7" s="2"/>
     </row>
     <row r="8" spans="1:8">
-      <c r="A8" s="397"/>
+      <c r="A8" s="396"/>
       <c r="B8" s="26" t="s">
         <v>41</v>
       </c>
@@ -4252,7 +4267,7 @@
       <c r="H8" s="2"/>
     </row>
     <row r="9" spans="1:8">
-      <c r="A9" s="397"/>
+      <c r="A9" s="396"/>
       <c r="B9" s="26" t="s">
         <v>43</v>
       </c>
@@ -4271,7 +4286,7 @@
       <c r="H9" s="2"/>
     </row>
     <row r="10" spans="1:8">
-      <c r="A10" s="397"/>
+      <c r="A10" s="396"/>
       <c r="B10" s="26" t="s">
         <v>44</v>
       </c>
@@ -4290,7 +4305,7 @@
       <c r="H10" s="2"/>
     </row>
     <row r="11" spans="1:8">
-      <c r="A11" s="397"/>
+      <c r="A11" s="396"/>
       <c r="B11" s="26" t="s">
         <v>45</v>
       </c>
@@ -4309,7 +4324,7 @@
       <c r="H11" s="2"/>
     </row>
     <row r="12" spans="1:8">
-      <c r="A12" s="397"/>
+      <c r="A12" s="396"/>
       <c r="B12" s="26" t="s">
         <v>46</v>
       </c>
@@ -4328,7 +4343,7 @@
       <c r="H12" s="2"/>
     </row>
     <row r="13" spans="1:8">
-      <c r="A13" s="397"/>
+      <c r="A13" s="396"/>
       <c r="B13" s="26" t="s">
         <v>47</v>
       </c>
@@ -4347,7 +4362,7 @@
       <c r="H13" s="30"/>
     </row>
     <row r="14" spans="1:8">
-      <c r="A14" s="397"/>
+      <c r="A14" s="396"/>
       <c r="B14" s="26" t="s">
         <v>48</v>
       </c>
@@ -4366,7 +4381,7 @@
       <c r="H14" s="2"/>
     </row>
     <row r="15" spans="1:8">
-      <c r="A15" s="397"/>
+      <c r="A15" s="396"/>
       <c r="B15" s="26" t="s">
         <v>49</v>
       </c>
@@ -4385,7 +4400,7 @@
       <c r="H15" s="11"/>
     </row>
     <row r="16" spans="1:8">
-      <c r="A16" s="397"/>
+      <c r="A16" s="396"/>
       <c r="B16" s="26"/>
       <c r="C16" s="25"/>
       <c r="D16" s="25"/>
@@ -4398,7 +4413,7 @@
       <c r="H16" s="2"/>
     </row>
     <row r="17" spans="1:8">
-      <c r="A17" s="397"/>
+      <c r="A17" s="396"/>
       <c r="B17" s="26"/>
       <c r="C17" s="25"/>
       <c r="D17" s="25"/>
@@ -4411,7 +4426,7 @@
       <c r="H17" s="2"/>
     </row>
     <row r="18" spans="1:8">
-      <c r="A18" s="397"/>
+      <c r="A18" s="396"/>
       <c r="B18" s="26"/>
       <c r="C18" s="25"/>
       <c r="D18" s="25"/>
@@ -4424,7 +4439,7 @@
       <c r="H18" s="2"/>
     </row>
     <row r="19" spans="1:8" ht="12.75" customHeight="1">
-      <c r="A19" s="397"/>
+      <c r="A19" s="396"/>
       <c r="B19" s="26"/>
       <c r="C19" s="25"/>
       <c r="D19" s="25"/>
@@ -4437,7 +4452,7 @@
       <c r="H19" s="2"/>
     </row>
     <row r="20" spans="1:8">
-      <c r="A20" s="397"/>
+      <c r="A20" s="396"/>
       <c r="B20" s="26"/>
       <c r="C20" s="25"/>
       <c r="D20" s="25"/>
@@ -4450,7 +4465,7 @@
       <c r="H20" s="2"/>
     </row>
     <row r="21" spans="1:8">
-      <c r="A21" s="397"/>
+      <c r="A21" s="396"/>
       <c r="B21" s="26"/>
       <c r="C21" s="25"/>
       <c r="D21" s="25"/>
@@ -4463,7 +4478,7 @@
       <c r="H21" s="2"/>
     </row>
     <row r="22" spans="1:8">
-      <c r="A22" s="397"/>
+      <c r="A22" s="396"/>
       <c r="B22" s="26"/>
       <c r="C22" s="25"/>
       <c r="D22" s="25"/>
@@ -4476,7 +4491,7 @@
       <c r="H22" s="2"/>
     </row>
     <row r="23" spans="1:8">
-      <c r="A23" s="397"/>
+      <c r="A23" s="396"/>
       <c r="B23" s="26"/>
       <c r="C23" s="25"/>
       <c r="D23" s="25"/>
@@ -4489,7 +4504,7 @@
       <c r="H23" s="2"/>
     </row>
     <row r="24" spans="1:8">
-      <c r="A24" s="397"/>
+      <c r="A24" s="396"/>
       <c r="B24" s="26"/>
       <c r="C24" s="25"/>
       <c r="D24" s="25"/>
@@ -4502,7 +4517,7 @@
       <c r="H24" s="2"/>
     </row>
     <row r="25" spans="1:8">
-      <c r="A25" s="397"/>
+      <c r="A25" s="396"/>
       <c r="B25" s="26"/>
       <c r="C25" s="25"/>
       <c r="D25" s="25"/>
@@ -4515,7 +4530,7 @@
       <c r="H25" s="2"/>
     </row>
     <row r="26" spans="1:8">
-      <c r="A26" s="397"/>
+      <c r="A26" s="396"/>
       <c r="B26" s="26"/>
       <c r="C26" s="25"/>
       <c r="D26" s="25"/>
@@ -4528,7 +4543,7 @@
       <c r="H26" s="2"/>
     </row>
     <row r="27" spans="1:8">
-      <c r="A27" s="397"/>
+      <c r="A27" s="396"/>
       <c r="B27" s="26"/>
       <c r="C27" s="25"/>
       <c r="D27" s="25"/>
@@ -4541,7 +4556,7 @@
       <c r="H27" s="21"/>
     </row>
     <row r="28" spans="1:8">
-      <c r="A28" s="397"/>
+      <c r="A28" s="396"/>
       <c r="B28" s="26"/>
       <c r="C28" s="25"/>
       <c r="D28" s="25"/>
@@ -4554,7 +4569,7 @@
       <c r="H28" s="21"/>
     </row>
     <row r="29" spans="1:8">
-      <c r="A29" s="397"/>
+      <c r="A29" s="396"/>
       <c r="B29" s="26"/>
       <c r="C29" s="25"/>
       <c r="D29" s="25"/>
@@ -4567,7 +4582,7 @@
       <c r="H29" s="21"/>
     </row>
     <row r="30" spans="1:8">
-      <c r="A30" s="397"/>
+      <c r="A30" s="396"/>
       <c r="B30" s="26"/>
       <c r="C30" s="25"/>
       <c r="D30" s="25"/>
@@ -4580,7 +4595,7 @@
       <c r="H30" s="21"/>
     </row>
     <row r="31" spans="1:8">
-      <c r="A31" s="397"/>
+      <c r="A31" s="396"/>
       <c r="B31" s="26"/>
       <c r="C31" s="25"/>
       <c r="D31" s="25"/>
@@ -4593,7 +4608,7 @@
       <c r="H31" s="21"/>
     </row>
     <row r="32" spans="1:8">
-      <c r="A32" s="397"/>
+      <c r="A32" s="396"/>
       <c r="B32" s="26"/>
       <c r="C32" s="25"/>
       <c r="D32" s="25"/>
@@ -4606,7 +4621,7 @@
       <c r="H32" s="21"/>
     </row>
     <row r="33" spans="1:8">
-      <c r="A33" s="397"/>
+      <c r="A33" s="396"/>
       <c r="B33" s="26"/>
       <c r="C33" s="25"/>
       <c r="D33" s="28"/>
@@ -4619,7 +4634,7 @@
       <c r="H33" s="21"/>
     </row>
     <row r="34" spans="1:8">
-      <c r="A34" s="397"/>
+      <c r="A34" s="396"/>
       <c r="B34" s="26"/>
       <c r="C34" s="25"/>
       <c r="D34" s="25"/>
@@ -4632,7 +4647,7 @@
       <c r="H34" s="21"/>
     </row>
     <row r="35" spans="1:8">
-      <c r="A35" s="397"/>
+      <c r="A35" s="396"/>
       <c r="B35" s="26"/>
       <c r="C35" s="25"/>
       <c r="D35" s="25"/>
@@ -4645,7 +4660,7 @@
       <c r="H35" s="21"/>
     </row>
     <row r="36" spans="1:8">
-      <c r="A36" s="397"/>
+      <c r="A36" s="396"/>
       <c r="B36" s="26"/>
       <c r="C36" s="25"/>
       <c r="D36" s="25"/>
@@ -4658,7 +4673,7 @@
       <c r="H36" s="21"/>
     </row>
     <row r="37" spans="1:8">
-      <c r="A37" s="397"/>
+      <c r="A37" s="396"/>
       <c r="B37" s="26"/>
       <c r="C37" s="25"/>
       <c r="D37" s="25"/>
@@ -4671,7 +4686,7 @@
       <c r="H37" s="21"/>
     </row>
     <row r="38" spans="1:8">
-      <c r="A38" s="397"/>
+      <c r="A38" s="396"/>
       <c r="B38" s="26"/>
       <c r="C38" s="25"/>
       <c r="D38" s="25"/>
@@ -4684,7 +4699,7 @@
       <c r="H38" s="21"/>
     </row>
     <row r="39" spans="1:8">
-      <c r="A39" s="397"/>
+      <c r="A39" s="396"/>
       <c r="B39" s="26"/>
       <c r="C39" s="25"/>
       <c r="D39" s="25"/>
@@ -4697,7 +4712,7 @@
       <c r="H39" s="21"/>
     </row>
     <row r="40" spans="1:8">
-      <c r="A40" s="397"/>
+      <c r="A40" s="396"/>
       <c r="B40" s="26"/>
       <c r="C40" s="25"/>
       <c r="D40" s="25"/>
@@ -4710,7 +4725,7 @@
       <c r="H40" s="21"/>
     </row>
     <row r="41" spans="1:8">
-      <c r="A41" s="397"/>
+      <c r="A41" s="396"/>
       <c r="B41" s="26"/>
       <c r="C41" s="25"/>
       <c r="D41" s="25"/>
@@ -4723,7 +4738,7 @@
       <c r="H41" s="21"/>
     </row>
     <row r="42" spans="1:8">
-      <c r="A42" s="397"/>
+      <c r="A42" s="396"/>
       <c r="B42" s="26"/>
       <c r="C42" s="25"/>
       <c r="D42" s="25"/>
@@ -4736,7 +4751,7 @@
       <c r="H42" s="21"/>
     </row>
     <row r="43" spans="1:8">
-      <c r="A43" s="397"/>
+      <c r="A43" s="396"/>
       <c r="B43" s="26"/>
       <c r="C43" s="25"/>
       <c r="D43" s="25"/>
@@ -4749,7 +4764,7 @@
       <c r="H43" s="21"/>
     </row>
     <row r="44" spans="1:8">
-      <c r="A44" s="397"/>
+      <c r="A44" s="396"/>
       <c r="B44" s="26"/>
       <c r="C44" s="25"/>
       <c r="D44" s="25"/>
@@ -4762,7 +4777,7 @@
       <c r="H44" s="21"/>
     </row>
     <row r="45" spans="1:8">
-      <c r="A45" s="397"/>
+      <c r="A45" s="396"/>
       <c r="B45" s="26"/>
       <c r="C45" s="25"/>
       <c r="D45" s="25"/>
@@ -4775,7 +4790,7 @@
       <c r="H45" s="21"/>
     </row>
     <row r="46" spans="1:8">
-      <c r="A46" s="397"/>
+      <c r="A46" s="396"/>
       <c r="B46" s="26"/>
       <c r="C46" s="25"/>
       <c r="D46" s="25"/>
@@ -4788,7 +4803,7 @@
       <c r="H46" s="21"/>
     </row>
     <row r="47" spans="1:8">
-      <c r="A47" s="397"/>
+      <c r="A47" s="396"/>
       <c r="B47" s="26"/>
       <c r="C47" s="25"/>
       <c r="D47" s="25"/>
@@ -4801,7 +4816,7 @@
       <c r="H47" s="21"/>
     </row>
     <row r="48" spans="1:8">
-      <c r="A48" s="397"/>
+      <c r="A48" s="396"/>
       <c r="B48" s="26"/>
       <c r="C48" s="25"/>
       <c r="D48" s="25"/>
@@ -4814,7 +4829,7 @@
       <c r="H48" s="21"/>
     </row>
     <row r="49" spans="1:8">
-      <c r="A49" s="397"/>
+      <c r="A49" s="396"/>
       <c r="B49" s="26"/>
       <c r="C49" s="25"/>
       <c r="D49" s="25"/>
@@ -4827,7 +4842,7 @@
       <c r="H49" s="21"/>
     </row>
     <row r="50" spans="1:8">
-      <c r="A50" s="397"/>
+      <c r="A50" s="396"/>
       <c r="B50" s="26"/>
       <c r="C50" s="25"/>
       <c r="D50" s="25"/>
@@ -4840,7 +4855,7 @@
       <c r="H50" s="21"/>
     </row>
     <row r="51" spans="1:8">
-      <c r="A51" s="397"/>
+      <c r="A51" s="396"/>
       <c r="B51" s="26"/>
       <c r="C51" s="25"/>
       <c r="D51" s="25"/>
@@ -4853,7 +4868,7 @@
       <c r="H51" s="21"/>
     </row>
     <row r="52" spans="1:8">
-      <c r="A52" s="397"/>
+      <c r="A52" s="396"/>
       <c r="B52" s="26"/>
       <c r="C52" s="25"/>
       <c r="D52" s="25"/>
@@ -4866,7 +4881,7 @@
       <c r="H52" s="21"/>
     </row>
     <row r="53" spans="1:8">
-      <c r="A53" s="397"/>
+      <c r="A53" s="396"/>
       <c r="B53" s="26"/>
       <c r="C53" s="25"/>
       <c r="D53" s="25"/>
@@ -4879,7 +4894,7 @@
       <c r="H53" s="21"/>
     </row>
     <row r="54" spans="1:8">
-      <c r="A54" s="397"/>
+      <c r="A54" s="396"/>
       <c r="B54" s="26"/>
       <c r="C54" s="25"/>
       <c r="D54" s="25"/>
@@ -4892,7 +4907,7 @@
       <c r="H54" s="21"/>
     </row>
     <row r="55" spans="1:8">
-      <c r="A55" s="397"/>
+      <c r="A55" s="396"/>
       <c r="B55" s="26"/>
       <c r="C55" s="25"/>
       <c r="D55" s="25"/>
@@ -4904,7 +4919,7 @@
       <c r="G55" s="2"/>
     </row>
     <row r="56" spans="1:8">
-      <c r="A56" s="397"/>
+      <c r="A56" s="396"/>
       <c r="B56" s="26"/>
       <c r="C56" s="25"/>
       <c r="D56" s="25"/>
@@ -4916,7 +4931,7 @@
       <c r="G56" s="2"/>
     </row>
     <row r="57" spans="1:8">
-      <c r="A57" s="397"/>
+      <c r="A57" s="396"/>
       <c r="B57" s="26"/>
       <c r="C57" s="25"/>
       <c r="D57" s="25"/>
@@ -4928,7 +4943,7 @@
       <c r="G57" s="2"/>
     </row>
     <row r="58" spans="1:8">
-      <c r="A58" s="397"/>
+      <c r="A58" s="396"/>
       <c r="B58" s="26"/>
       <c r="C58" s="25"/>
       <c r="D58" s="25"/>
@@ -4940,7 +4955,7 @@
       <c r="G58" s="2"/>
     </row>
     <row r="59" spans="1:8">
-      <c r="A59" s="397"/>
+      <c r="A59" s="396"/>
       <c r="B59" s="26"/>
       <c r="C59" s="25"/>
       <c r="D59" s="25"/>
@@ -4952,7 +4967,7 @@
       <c r="G59" s="2"/>
     </row>
     <row r="60" spans="1:8">
-      <c r="A60" s="397"/>
+      <c r="A60" s="396"/>
       <c r="B60" s="26"/>
       <c r="C60" s="25"/>
       <c r="D60" s="25"/>
@@ -4964,7 +4979,7 @@
       <c r="G60" s="2"/>
     </row>
     <row r="61" spans="1:8">
-      <c r="A61" s="397"/>
+      <c r="A61" s="396"/>
       <c r="B61" s="26"/>
       <c r="C61" s="25"/>
       <c r="D61" s="25"/>
@@ -4976,7 +4991,7 @@
       <c r="G61" s="2"/>
     </row>
     <row r="62" spans="1:8">
-      <c r="A62" s="397"/>
+      <c r="A62" s="396"/>
       <c r="B62" s="26"/>
       <c r="C62" s="25"/>
       <c r="D62" s="25"/>
@@ -4988,7 +5003,7 @@
       <c r="G62" s="2"/>
     </row>
     <row r="63" spans="1:8">
-      <c r="A63" s="397"/>
+      <c r="A63" s="396"/>
       <c r="B63" s="26"/>
       <c r="C63" s="25"/>
       <c r="D63" s="25"/>
@@ -5000,7 +5015,7 @@
       <c r="G63" s="2"/>
     </row>
     <row r="64" spans="1:8">
-      <c r="A64" s="397"/>
+      <c r="A64" s="396"/>
       <c r="B64" s="26"/>
       <c r="C64" s="25"/>
       <c r="D64" s="25"/>
@@ -5012,7 +5027,7 @@
       <c r="G64" s="2"/>
     </row>
     <row r="65" spans="1:7">
-      <c r="A65" s="397"/>
+      <c r="A65" s="396"/>
       <c r="B65" s="26"/>
       <c r="C65" s="25"/>
       <c r="D65" s="25"/>
@@ -5024,7 +5039,7 @@
       <c r="G65" s="2"/>
     </row>
     <row r="66" spans="1:7">
-      <c r="A66" s="397"/>
+      <c r="A66" s="396"/>
       <c r="B66" s="26"/>
       <c r="C66" s="25"/>
       <c r="D66" s="25"/>
@@ -5036,7 +5051,7 @@
       <c r="G66" s="2"/>
     </row>
     <row r="67" spans="1:7">
-      <c r="A67" s="397"/>
+      <c r="A67" s="396"/>
       <c r="B67" s="26"/>
       <c r="C67" s="25"/>
       <c r="D67" s="25"/>
@@ -5048,7 +5063,7 @@
       <c r="G67" s="2"/>
     </row>
     <row r="68" spans="1:7">
-      <c r="A68" s="397"/>
+      <c r="A68" s="396"/>
       <c r="B68" s="26"/>
       <c r="C68" s="25"/>
       <c r="D68" s="25"/>
@@ -5060,7 +5075,7 @@
       <c r="G68" s="2"/>
     </row>
     <row r="69" spans="1:7">
-      <c r="A69" s="397"/>
+      <c r="A69" s="396"/>
       <c r="B69" s="26"/>
       <c r="C69" s="25"/>
       <c r="D69" s="25"/>
@@ -5072,7 +5087,7 @@
       <c r="G69" s="2"/>
     </row>
     <row r="70" spans="1:7">
-      <c r="A70" s="397"/>
+      <c r="A70" s="396"/>
       <c r="B70" s="26"/>
       <c r="C70" s="25"/>
       <c r="D70" s="25"/>
@@ -5084,7 +5099,7 @@
       <c r="G70" s="2"/>
     </row>
     <row r="71" spans="1:7">
-      <c r="A71" s="397"/>
+      <c r="A71" s="396"/>
       <c r="B71" s="26"/>
       <c r="C71" s="25"/>
       <c r="D71" s="25"/>
@@ -5096,7 +5111,7 @@
       <c r="G71" s="2"/>
     </row>
     <row r="72" spans="1:7">
-      <c r="A72" s="397"/>
+      <c r="A72" s="396"/>
       <c r="B72" s="26"/>
       <c r="C72" s="25"/>
       <c r="D72" s="25"/>
@@ -5108,7 +5123,7 @@
       <c r="G72" s="2"/>
     </row>
     <row r="73" spans="1:7">
-      <c r="A73" s="397"/>
+      <c r="A73" s="396"/>
       <c r="B73" s="26"/>
       <c r="C73" s="25"/>
       <c r="D73" s="25"/>
@@ -5120,7 +5135,7 @@
       <c r="G73" s="2"/>
     </row>
     <row r="74" spans="1:7">
-      <c r="A74" s="397"/>
+      <c r="A74" s="396"/>
       <c r="B74" s="26"/>
       <c r="C74" s="25"/>
       <c r="D74" s="25"/>
@@ -5132,7 +5147,7 @@
       <c r="G74" s="2"/>
     </row>
     <row r="75" spans="1:7">
-      <c r="A75" s="397"/>
+      <c r="A75" s="396"/>
       <c r="B75" s="26"/>
       <c r="C75" s="25"/>
       <c r="D75" s="25"/>
@@ -5144,7 +5159,7 @@
       <c r="G75" s="2"/>
     </row>
     <row r="76" spans="1:7">
-      <c r="A76" s="397"/>
+      <c r="A76" s="396"/>
       <c r="B76" s="26"/>
       <c r="C76" s="25"/>
       <c r="D76" s="25"/>
@@ -5156,7 +5171,7 @@
       <c r="G76" s="2"/>
     </row>
     <row r="77" spans="1:7">
-      <c r="A77" s="397"/>
+      <c r="A77" s="396"/>
       <c r="B77" s="26"/>
       <c r="C77" s="25"/>
       <c r="D77" s="25"/>
@@ -5168,7 +5183,7 @@
       <c r="G77" s="2"/>
     </row>
     <row r="78" spans="1:7">
-      <c r="A78" s="397"/>
+      <c r="A78" s="396"/>
       <c r="B78" s="26"/>
       <c r="C78" s="25"/>
       <c r="D78" s="25"/>
@@ -5180,7 +5195,7 @@
       <c r="G78" s="2"/>
     </row>
     <row r="79" spans="1:7">
-      <c r="A79" s="397"/>
+      <c r="A79" s="396"/>
       <c r="B79" s="26"/>
       <c r="C79" s="25"/>
       <c r="D79" s="25"/>
@@ -5192,7 +5207,7 @@
       <c r="G79" s="2"/>
     </row>
     <row r="80" spans="1:7">
-      <c r="A80" s="397"/>
+      <c r="A80" s="396"/>
       <c r="B80" s="26"/>
       <c r="C80" s="25"/>
       <c r="D80" s="25"/>
@@ -5204,7 +5219,7 @@
       <c r="G80" s="2"/>
     </row>
     <row r="81" spans="1:7">
-      <c r="A81" s="397"/>
+      <c r="A81" s="396"/>
       <c r="B81" s="26"/>
       <c r="C81" s="25"/>
       <c r="D81" s="25"/>
@@ -5216,7 +5231,7 @@
       <c r="G81" s="2"/>
     </row>
     <row r="82" spans="1:7">
-      <c r="A82" s="397"/>
+      <c r="A82" s="396"/>
       <c r="B82" s="26"/>
       <c r="C82" s="25"/>
       <c r="D82" s="25"/>
@@ -5228,7 +5243,7 @@
       <c r="G82" s="2"/>
     </row>
     <row r="83" spans="1:7">
-      <c r="A83" s="397"/>
+      <c r="A83" s="396"/>
       <c r="B83" s="31"/>
       <c r="C83" s="27">
         <f>SUM(C5:C72)</f>
@@ -5285,33 +5300,33 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="20.25" customHeight="1">
-      <c r="A1" s="396"/>
-      <c r="B1" s="396"/>
-      <c r="C1" s="396"/>
-      <c r="D1" s="396"/>
-      <c r="E1" s="396"/>
-      <c r="F1" s="396"/>
+      <c r="A1" s="395"/>
+      <c r="B1" s="395"/>
+      <c r="C1" s="395"/>
+      <c r="D1" s="395"/>
+      <c r="E1" s="395"/>
+      <c r="F1" s="395"/>
     </row>
     <row r="2" spans="1:9" ht="20.25">
-      <c r="A2" s="397"/>
-      <c r="B2" s="394" t="s">
+      <c r="A2" s="396"/>
+      <c r="B2" s="393" t="s">
         <v>14</v>
       </c>
-      <c r="C2" s="394"/>
-      <c r="D2" s="394"/>
-      <c r="E2" s="394"/>
+      <c r="C2" s="393"/>
+      <c r="D2" s="393"/>
+      <c r="E2" s="393"/>
     </row>
     <row r="3" spans="1:9" ht="16.5" customHeight="1">
-      <c r="A3" s="397"/>
-      <c r="B3" s="395" t="s">
+      <c r="A3" s="396"/>
+      <c r="B3" s="394" t="s">
         <v>185</v>
       </c>
-      <c r="C3" s="395"/>
-      <c r="D3" s="395"/>
-      <c r="E3" s="395"/>
+      <c r="C3" s="394"/>
+      <c r="D3" s="394"/>
+      <c r="E3" s="394"/>
     </row>
     <row r="4" spans="1:9" ht="15.75" customHeight="1">
-      <c r="A4" s="397"/>
+      <c r="A4" s="396"/>
       <c r="B4" s="22" t="s">
         <v>0</v>
       </c>
@@ -5329,7 +5344,7 @@
       </c>
     </row>
     <row r="5" spans="1:9">
-      <c r="A5" s="397"/>
+      <c r="A5" s="396"/>
       <c r="B5" s="24" t="s">
         <v>3</v>
       </c>
@@ -5347,7 +5362,7 @@
       <c r="G5" s="2"/>
     </row>
     <row r="6" spans="1:9">
-      <c r="A6" s="397"/>
+      <c r="A6" s="396"/>
       <c r="B6" s="26" t="s">
         <v>188</v>
       </c>
@@ -5365,7 +5380,7 @@
       <c r="G6" s="19"/>
     </row>
     <row r="7" spans="1:9">
-      <c r="A7" s="397"/>
+      <c r="A7" s="396"/>
       <c r="B7" s="26" t="s">
         <v>192</v>
       </c>
@@ -5385,7 +5400,7 @@
       <c r="I7" s="21"/>
     </row>
     <row r="8" spans="1:9">
-      <c r="A8" s="397"/>
+      <c r="A8" s="396"/>
       <c r="B8" s="26" t="s">
         <v>193</v>
       </c>
@@ -5405,7 +5420,7 @@
       <c r="I8" s="21"/>
     </row>
     <row r="9" spans="1:9">
-      <c r="A9" s="397"/>
+      <c r="A9" s="396"/>
       <c r="B9" s="26" t="s">
         <v>214</v>
       </c>
@@ -5425,7 +5440,7 @@
       <c r="I9" s="21"/>
     </row>
     <row r="10" spans="1:9">
-      <c r="A10" s="397"/>
+      <c r="A10" s="396"/>
       <c r="B10" s="26" t="s">
         <v>216</v>
       </c>
@@ -5445,7 +5460,7 @@
       <c r="I10" s="21"/>
     </row>
     <row r="11" spans="1:9">
-      <c r="A11" s="397"/>
+      <c r="A11" s="396"/>
       <c r="B11" s="26" t="s">
         <v>220</v>
       </c>
@@ -5465,7 +5480,7 @@
       <c r="I11" s="21"/>
     </row>
     <row r="12" spans="1:9">
-      <c r="A12" s="397"/>
+      <c r="A12" s="396"/>
       <c r="B12" s="26" t="s">
         <v>222</v>
       </c>
@@ -5485,7 +5500,7 @@
       <c r="I12" s="21"/>
     </row>
     <row r="13" spans="1:9">
-      <c r="A13" s="397"/>
+      <c r="A13" s="396"/>
       <c r="B13" s="26" t="s">
         <v>225</v>
       </c>
@@ -5505,7 +5520,7 @@
       <c r="I13" s="21"/>
     </row>
     <row r="14" spans="1:9">
-      <c r="A14" s="397"/>
+      <c r="A14" s="396"/>
       <c r="B14" s="26" t="s">
         <v>231</v>
       </c>
@@ -5525,7 +5540,7 @@
       <c r="I14" s="21"/>
     </row>
     <row r="15" spans="1:9">
-      <c r="A15" s="397"/>
+      <c r="A15" s="396"/>
       <c r="B15" s="26" t="s">
         <v>232</v>
       </c>
@@ -5545,7 +5560,7 @@
       <c r="I15" s="21"/>
     </row>
     <row r="16" spans="1:9">
-      <c r="A16" s="397"/>
+      <c r="A16" s="396"/>
       <c r="B16" s="26" t="s">
         <v>234</v>
       </c>
@@ -5565,7 +5580,7 @@
       <c r="I16" s="21"/>
     </row>
     <row r="17" spans="1:9">
-      <c r="A17" s="397"/>
+      <c r="A17" s="396"/>
       <c r="B17" s="26" t="s">
         <v>235</v>
       </c>
@@ -5585,7 +5600,7 @@
       <c r="I17" s="21"/>
     </row>
     <row r="18" spans="1:9">
-      <c r="A18" s="397"/>
+      <c r="A18" s="396"/>
       <c r="B18" s="26" t="s">
         <v>237</v>
       </c>
@@ -5605,7 +5620,7 @@
       <c r="I18" s="21"/>
     </row>
     <row r="19" spans="1:9" ht="12.75" customHeight="1">
-      <c r="A19" s="397"/>
+      <c r="A19" s="396"/>
       <c r="B19" s="26" t="s">
         <v>238</v>
       </c>
@@ -5625,7 +5640,7 @@
       <c r="I19" s="21"/>
     </row>
     <row r="20" spans="1:9">
-      <c r="A20" s="397"/>
+      <c r="A20" s="396"/>
       <c r="B20" s="26" t="s">
         <v>239</v>
       </c>
@@ -5645,7 +5660,7 @@
       <c r="I20" s="21"/>
     </row>
     <row r="21" spans="1:9">
-      <c r="A21" s="397"/>
+      <c r="A21" s="396"/>
       <c r="B21" s="26" t="s">
         <v>241</v>
       </c>
@@ -5665,7 +5680,7 @@
       <c r="I21" s="21"/>
     </row>
     <row r="22" spans="1:9">
-      <c r="A22" s="397"/>
+      <c r="A22" s="396"/>
       <c r="B22" s="26" t="s">
         <v>243</v>
       </c>
@@ -5685,7 +5700,7 @@
       <c r="I22" s="21"/>
     </row>
     <row r="23" spans="1:9">
-      <c r="A23" s="397"/>
+      <c r="A23" s="396"/>
       <c r="B23" s="26" t="s">
         <v>244</v>
       </c>
@@ -5705,7 +5720,7 @@
       <c r="I23" s="21"/>
     </row>
     <row r="24" spans="1:9">
-      <c r="A24" s="397"/>
+      <c r="A24" s="396"/>
       <c r="B24" s="26" t="s">
         <v>245</v>
       </c>
@@ -5725,7 +5740,7 @@
       <c r="I24" s="21"/>
     </row>
     <row r="25" spans="1:9">
-      <c r="A25" s="397"/>
+      <c r="A25" s="396"/>
       <c r="B25" s="26" t="s">
         <v>246</v>
       </c>
@@ -5745,7 +5760,7 @@
       <c r="I25" s="21"/>
     </row>
     <row r="26" spans="1:9">
-      <c r="A26" s="397"/>
+      <c r="A26" s="396"/>
       <c r="B26" s="26" t="s">
         <v>252</v>
       </c>
@@ -5765,7 +5780,7 @@
       <c r="I26" s="21"/>
     </row>
     <row r="27" spans="1:9">
-      <c r="A27" s="397"/>
+      <c r="A27" s="396"/>
       <c r="B27" s="26" t="s">
         <v>255</v>
       </c>
@@ -5785,7 +5800,7 @@
       <c r="I27" s="21"/>
     </row>
     <row r="28" spans="1:9">
-      <c r="A28" s="397"/>
+      <c r="A28" s="396"/>
       <c r="B28" s="26"/>
       <c r="C28" s="227"/>
       <c r="D28" s="229"/>
@@ -5799,7 +5814,7 @@
       <c r="I28" s="21"/>
     </row>
     <row r="29" spans="1:9">
-      <c r="A29" s="397"/>
+      <c r="A29" s="396"/>
       <c r="B29" s="26"/>
       <c r="C29" s="227"/>
       <c r="D29" s="227"/>
@@ -5813,7 +5828,7 @@
       <c r="I29" s="21"/>
     </row>
     <row r="30" spans="1:9">
-      <c r="A30" s="397"/>
+      <c r="A30" s="396"/>
       <c r="B30" s="26"/>
       <c r="C30" s="227"/>
       <c r="D30" s="227"/>
@@ -5827,7 +5842,7 @@
       <c r="I30" s="21"/>
     </row>
     <row r="31" spans="1:9">
-      <c r="A31" s="397"/>
+      <c r="A31" s="396"/>
       <c r="B31" s="26"/>
       <c r="C31" s="227"/>
       <c r="D31" s="227"/>
@@ -5841,7 +5856,7 @@
       <c r="I31" s="21"/>
     </row>
     <row r="32" spans="1:9">
-      <c r="A32" s="397"/>
+      <c r="A32" s="396"/>
       <c r="B32" s="26"/>
       <c r="C32" s="227"/>
       <c r="D32" s="227"/>
@@ -5855,7 +5870,7 @@
       <c r="I32" s="21"/>
     </row>
     <row r="33" spans="1:9">
-      <c r="A33" s="397"/>
+      <c r="A33" s="396"/>
       <c r="B33" s="26"/>
       <c r="C33" s="227"/>
       <c r="D33" s="229"/>
@@ -5869,7 +5884,7 @@
       <c r="I33" s="21"/>
     </row>
     <row r="34" spans="1:9">
-      <c r="A34" s="397"/>
+      <c r="A34" s="396"/>
       <c r="B34" s="26"/>
       <c r="C34" s="227"/>
       <c r="D34" s="227"/>
@@ -5883,7 +5898,7 @@
       <c r="I34" s="21"/>
     </row>
     <row r="35" spans="1:9">
-      <c r="A35" s="397"/>
+      <c r="A35" s="396"/>
       <c r="B35" s="26"/>
       <c r="C35" s="227"/>
       <c r="D35" s="227"/>
@@ -5897,7 +5912,7 @@
       <c r="I35" s="21"/>
     </row>
     <row r="36" spans="1:9">
-      <c r="A36" s="397"/>
+      <c r="A36" s="396"/>
       <c r="B36" s="26"/>
       <c r="C36" s="227"/>
       <c r="D36" s="227"/>
@@ -5911,7 +5926,7 @@
       <c r="I36" s="21"/>
     </row>
     <row r="37" spans="1:9">
-      <c r="A37" s="397"/>
+      <c r="A37" s="396"/>
       <c r="B37" s="26"/>
       <c r="C37" s="227"/>
       <c r="D37" s="227"/>
@@ -5925,7 +5940,7 @@
       <c r="I37" s="21"/>
     </row>
     <row r="38" spans="1:9">
-      <c r="A38" s="397"/>
+      <c r="A38" s="396"/>
       <c r="B38" s="26"/>
       <c r="C38" s="227"/>
       <c r="D38" s="227"/>
@@ -5939,7 +5954,7 @@
       <c r="I38" s="21"/>
     </row>
     <row r="39" spans="1:9">
-      <c r="A39" s="397"/>
+      <c r="A39" s="396"/>
       <c r="B39" s="26"/>
       <c r="C39" s="227"/>
       <c r="D39" s="227"/>
@@ -5953,7 +5968,7 @@
       <c r="I39" s="21"/>
     </row>
     <row r="40" spans="1:9">
-      <c r="A40" s="397"/>
+      <c r="A40" s="396"/>
       <c r="B40" s="26"/>
       <c r="C40" s="227"/>
       <c r="D40" s="227"/>
@@ -5967,7 +5982,7 @@
       <c r="I40" s="21"/>
     </row>
     <row r="41" spans="1:9">
-      <c r="A41" s="397"/>
+      <c r="A41" s="396"/>
       <c r="B41" s="26"/>
       <c r="C41" s="227"/>
       <c r="D41" s="227"/>
@@ -5981,7 +5996,7 @@
       <c r="I41" s="21"/>
     </row>
     <row r="42" spans="1:9">
-      <c r="A42" s="397"/>
+      <c r="A42" s="396"/>
       <c r="B42" s="26"/>
       <c r="C42" s="227"/>
       <c r="D42" s="227"/>
@@ -5995,7 +6010,7 @@
       <c r="I42" s="21"/>
     </row>
     <row r="43" spans="1:9">
-      <c r="A43" s="397"/>
+      <c r="A43" s="396"/>
       <c r="B43" s="26"/>
       <c r="C43" s="227"/>
       <c r="D43" s="227"/>
@@ -6009,7 +6024,7 @@
       <c r="I43" s="21"/>
     </row>
     <row r="44" spans="1:9">
-      <c r="A44" s="397"/>
+      <c r="A44" s="396"/>
       <c r="B44" s="26"/>
       <c r="C44" s="227"/>
       <c r="D44" s="227"/>
@@ -6023,7 +6038,7 @@
       <c r="I44" s="21"/>
     </row>
     <row r="45" spans="1:9">
-      <c r="A45" s="397"/>
+      <c r="A45" s="396"/>
       <c r="B45" s="26"/>
       <c r="C45" s="227"/>
       <c r="D45" s="227"/>
@@ -6037,7 +6052,7 @@
       <c r="I45" s="21"/>
     </row>
     <row r="46" spans="1:9">
-      <c r="A46" s="397"/>
+      <c r="A46" s="396"/>
       <c r="B46" s="26"/>
       <c r="C46" s="227"/>
       <c r="D46" s="227"/>
@@ -6051,7 +6066,7 @@
       <c r="I46" s="21"/>
     </row>
     <row r="47" spans="1:9">
-      <c r="A47" s="397"/>
+      <c r="A47" s="396"/>
       <c r="B47" s="26"/>
       <c r="C47" s="227"/>
       <c r="D47" s="227"/>
@@ -6065,7 +6080,7 @@
       <c r="I47" s="21"/>
     </row>
     <row r="48" spans="1:9">
-      <c r="A48" s="397"/>
+      <c r="A48" s="396"/>
       <c r="B48" s="26"/>
       <c r="C48" s="227"/>
       <c r="D48" s="227"/>
@@ -6079,7 +6094,7 @@
       <c r="I48" s="21"/>
     </row>
     <row r="49" spans="1:9">
-      <c r="A49" s="397"/>
+      <c r="A49" s="396"/>
       <c r="B49" s="26"/>
       <c r="C49" s="227"/>
       <c r="D49" s="227"/>
@@ -6093,7 +6108,7 @@
       <c r="I49" s="21"/>
     </row>
     <row r="50" spans="1:9">
-      <c r="A50" s="397"/>
+      <c r="A50" s="396"/>
       <c r="B50" s="26"/>
       <c r="C50" s="227"/>
       <c r="D50" s="227"/>
@@ -6107,7 +6122,7 @@
       <c r="I50" s="21"/>
     </row>
     <row r="51" spans="1:9">
-      <c r="A51" s="397"/>
+      <c r="A51" s="396"/>
       <c r="B51" s="26"/>
       <c r="C51" s="227"/>
       <c r="D51" s="227"/>
@@ -6121,7 +6136,7 @@
       <c r="I51" s="21"/>
     </row>
     <row r="52" spans="1:9">
-      <c r="A52" s="397"/>
+      <c r="A52" s="396"/>
       <c r="B52" s="26"/>
       <c r="C52" s="227"/>
       <c r="D52" s="227"/>
@@ -6135,7 +6150,7 @@
       <c r="I52" s="21"/>
     </row>
     <row r="53" spans="1:9">
-      <c r="A53" s="397"/>
+      <c r="A53" s="396"/>
       <c r="B53" s="26"/>
       <c r="C53" s="227"/>
       <c r="D53" s="227"/>
@@ -6149,7 +6164,7 @@
       <c r="I53" s="21"/>
     </row>
     <row r="54" spans="1:9">
-      <c r="A54" s="397"/>
+      <c r="A54" s="396"/>
       <c r="B54" s="26"/>
       <c r="C54" s="227"/>
       <c r="D54" s="227"/>
@@ -6163,7 +6178,7 @@
       <c r="I54" s="21"/>
     </row>
     <row r="55" spans="1:9">
-      <c r="A55" s="397"/>
+      <c r="A55" s="396"/>
       <c r="B55" s="26"/>
       <c r="C55" s="227"/>
       <c r="D55" s="227"/>
@@ -6177,7 +6192,7 @@
       <c r="I55" s="21"/>
     </row>
     <row r="56" spans="1:9">
-      <c r="A56" s="397"/>
+      <c r="A56" s="396"/>
       <c r="B56" s="26"/>
       <c r="C56" s="227"/>
       <c r="D56" s="227"/>
@@ -6191,7 +6206,7 @@
       <c r="I56" s="21"/>
     </row>
     <row r="57" spans="1:9">
-      <c r="A57" s="397"/>
+      <c r="A57" s="396"/>
       <c r="B57" s="26"/>
       <c r="C57" s="227"/>
       <c r="D57" s="227"/>
@@ -6202,7 +6217,7 @@
       <c r="F57" s="2"/>
     </row>
     <row r="58" spans="1:9">
-      <c r="A58" s="397"/>
+      <c r="A58" s="396"/>
       <c r="B58" s="26"/>
       <c r="C58" s="227"/>
       <c r="D58" s="227"/>
@@ -6213,7 +6228,7 @@
       <c r="F58" s="2"/>
     </row>
     <row r="59" spans="1:9">
-      <c r="A59" s="397"/>
+      <c r="A59" s="396"/>
       <c r="B59" s="26"/>
       <c r="C59" s="227"/>
       <c r="D59" s="227"/>
@@ -6224,7 +6239,7 @@
       <c r="F59" s="2"/>
     </row>
     <row r="60" spans="1:9">
-      <c r="A60" s="397"/>
+      <c r="A60" s="396"/>
       <c r="B60" s="26"/>
       <c r="C60" s="227"/>
       <c r="D60" s="227"/>
@@ -6235,7 +6250,7 @@
       <c r="F60" s="2"/>
     </row>
     <row r="61" spans="1:9">
-      <c r="A61" s="397"/>
+      <c r="A61" s="396"/>
       <c r="B61" s="26"/>
       <c r="C61" s="227"/>
       <c r="D61" s="227"/>
@@ -6246,7 +6261,7 @@
       <c r="F61" s="2"/>
     </row>
     <row r="62" spans="1:9">
-      <c r="A62" s="397"/>
+      <c r="A62" s="396"/>
       <c r="B62" s="26"/>
       <c r="C62" s="227"/>
       <c r="D62" s="227"/>
@@ -6257,7 +6272,7 @@
       <c r="F62" s="2"/>
     </row>
     <row r="63" spans="1:9">
-      <c r="A63" s="397"/>
+      <c r="A63" s="396"/>
       <c r="B63" s="26"/>
       <c r="C63" s="227"/>
       <c r="D63" s="227"/>
@@ -6268,7 +6283,7 @@
       <c r="F63" s="2"/>
     </row>
     <row r="64" spans="1:9">
-      <c r="A64" s="397"/>
+      <c r="A64" s="396"/>
       <c r="B64" s="26"/>
       <c r="C64" s="227"/>
       <c r="D64" s="227"/>
@@ -6279,7 +6294,7 @@
       <c r="F64" s="2"/>
     </row>
     <row r="65" spans="1:7">
-      <c r="A65" s="397"/>
+      <c r="A65" s="396"/>
       <c r="B65" s="26"/>
       <c r="C65" s="227"/>
       <c r="D65" s="227"/>
@@ -6290,7 +6305,7 @@
       <c r="F65" s="2"/>
     </row>
     <row r="66" spans="1:7">
-      <c r="A66" s="397"/>
+      <c r="A66" s="396"/>
       <c r="B66" s="26"/>
       <c r="C66" s="227"/>
       <c r="D66" s="227"/>
@@ -6301,7 +6316,7 @@
       <c r="F66" s="2"/>
     </row>
     <row r="67" spans="1:7">
-      <c r="A67" s="397"/>
+      <c r="A67" s="396"/>
       <c r="B67" s="26"/>
       <c r="C67" s="227"/>
       <c r="D67" s="227"/>
@@ -6312,7 +6327,7 @@
       <c r="F67" s="2"/>
     </row>
     <row r="68" spans="1:7">
-      <c r="A68" s="397"/>
+      <c r="A68" s="396"/>
       <c r="B68" s="26"/>
       <c r="C68" s="227"/>
       <c r="D68" s="227"/>
@@ -6323,7 +6338,7 @@
       <c r="F68" s="2"/>
     </row>
     <row r="69" spans="1:7">
-      <c r="A69" s="397"/>
+      <c r="A69" s="396"/>
       <c r="B69" s="26"/>
       <c r="C69" s="227"/>
       <c r="D69" s="227"/>
@@ -6334,7 +6349,7 @@
       <c r="F69" s="2"/>
     </row>
     <row r="70" spans="1:7">
-      <c r="A70" s="397"/>
+      <c r="A70" s="396"/>
       <c r="B70" s="26"/>
       <c r="C70" s="227"/>
       <c r="D70" s="227"/>
@@ -6345,7 +6360,7 @@
       <c r="F70" s="2"/>
     </row>
     <row r="71" spans="1:7">
-      <c r="A71" s="397"/>
+      <c r="A71" s="396"/>
       <c r="B71" s="26"/>
       <c r="C71" s="227"/>
       <c r="D71" s="227"/>
@@ -6356,7 +6371,7 @@
       <c r="F71" s="2"/>
     </row>
     <row r="72" spans="1:7">
-      <c r="A72" s="397"/>
+      <c r="A72" s="396"/>
       <c r="B72" s="26"/>
       <c r="C72" s="227"/>
       <c r="D72" s="227"/>
@@ -6367,7 +6382,7 @@
       <c r="F72" s="2"/>
     </row>
     <row r="73" spans="1:7">
-      <c r="A73" s="397"/>
+      <c r="A73" s="396"/>
       <c r="B73" s="26"/>
       <c r="C73" s="227"/>
       <c r="D73" s="227"/>
@@ -6378,7 +6393,7 @@
       <c r="F73" s="2"/>
     </row>
     <row r="74" spans="1:7">
-      <c r="A74" s="397"/>
+      <c r="A74" s="396"/>
       <c r="B74" s="26"/>
       <c r="C74" s="227"/>
       <c r="D74" s="227"/>
@@ -6389,7 +6404,7 @@
       <c r="F74" s="2"/>
     </row>
     <row r="75" spans="1:7">
-      <c r="A75" s="397"/>
+      <c r="A75" s="396"/>
       <c r="B75" s="26"/>
       <c r="C75" s="227"/>
       <c r="D75" s="227"/>
@@ -6400,7 +6415,7 @@
       <c r="F75" s="2"/>
     </row>
     <row r="76" spans="1:7">
-      <c r="A76" s="397"/>
+      <c r="A76" s="396"/>
       <c r="B76" s="26"/>
       <c r="C76" s="227"/>
       <c r="D76" s="227"/>
@@ -6411,7 +6426,7 @@
       <c r="F76" s="2"/>
     </row>
     <row r="77" spans="1:7">
-      <c r="A77" s="397"/>
+      <c r="A77" s="396"/>
       <c r="B77" s="26"/>
       <c r="C77" s="227"/>
       <c r="D77" s="227"/>
@@ -6422,7 +6437,7 @@
       <c r="F77" s="2"/>
     </row>
     <row r="78" spans="1:7">
-      <c r="A78" s="397"/>
+      <c r="A78" s="396"/>
       <c r="B78" s="26"/>
       <c r="C78" s="227"/>
       <c r="D78" s="227"/>
@@ -6433,7 +6448,7 @@
       <c r="F78" s="2"/>
     </row>
     <row r="79" spans="1:7">
-      <c r="A79" s="397"/>
+      <c r="A79" s="396"/>
       <c r="B79" s="26"/>
       <c r="C79" s="227"/>
       <c r="D79" s="227"/>
@@ -6445,7 +6460,7 @@
       <c r="G79" s="2"/>
     </row>
     <row r="80" spans="1:7">
-      <c r="A80" s="397"/>
+      <c r="A80" s="396"/>
       <c r="B80" s="26"/>
       <c r="C80" s="227"/>
       <c r="D80" s="227"/>
@@ -6457,7 +6472,7 @@
       <c r="G80" s="2"/>
     </row>
     <row r="81" spans="1:7">
-      <c r="A81" s="397"/>
+      <c r="A81" s="396"/>
       <c r="B81" s="26"/>
       <c r="C81" s="227"/>
       <c r="D81" s="227"/>
@@ -6469,7 +6484,7 @@
       <c r="G81" s="2"/>
     </row>
     <row r="82" spans="1:7">
-      <c r="A82" s="397"/>
+      <c r="A82" s="396"/>
       <c r="B82" s="26"/>
       <c r="C82" s="227"/>
       <c r="D82" s="227"/>
@@ -6481,7 +6496,7 @@
       <c r="G82" s="2"/>
     </row>
     <row r="83" spans="1:7">
-      <c r="A83" s="397"/>
+      <c r="A83" s="396"/>
       <c r="B83" s="31"/>
       <c r="C83" s="228">
         <f>SUM(C5:C72)</f>
@@ -6544,67 +6559,67 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:24" ht="23.25">
-      <c r="A1" s="402" t="s">
+      <c r="A1" s="401" t="s">
         <v>14</v>
       </c>
-      <c r="B1" s="402"/>
-      <c r="C1" s="402"/>
-      <c r="D1" s="402"/>
-      <c r="E1" s="402"/>
-      <c r="F1" s="402"/>
-      <c r="G1" s="402"/>
-      <c r="H1" s="402"/>
-      <c r="I1" s="402"/>
-      <c r="J1" s="402"/>
-      <c r="K1" s="402"/>
-      <c r="L1" s="402"/>
-      <c r="M1" s="402"/>
-      <c r="N1" s="402"/>
-      <c r="O1" s="402"/>
-      <c r="P1" s="402"/>
-      <c r="Q1" s="402"/>
+      <c r="B1" s="401"/>
+      <c r="C1" s="401"/>
+      <c r="D1" s="401"/>
+      <c r="E1" s="401"/>
+      <c r="F1" s="401"/>
+      <c r="G1" s="401"/>
+      <c r="H1" s="401"/>
+      <c r="I1" s="401"/>
+      <c r="J1" s="401"/>
+      <c r="K1" s="401"/>
+      <c r="L1" s="401"/>
+      <c r="M1" s="401"/>
+      <c r="N1" s="401"/>
+      <c r="O1" s="401"/>
+      <c r="P1" s="401"/>
+      <c r="Q1" s="401"/>
     </row>
     <row r="2" spans="1:24" s="61" customFormat="1" ht="18">
-      <c r="A2" s="403" t="s">
+      <c r="A2" s="402" t="s">
         <v>62</v>
       </c>
-      <c r="B2" s="403"/>
-      <c r="C2" s="403"/>
-      <c r="D2" s="403"/>
-      <c r="E2" s="403"/>
-      <c r="F2" s="403"/>
-      <c r="G2" s="403"/>
-      <c r="H2" s="403"/>
-      <c r="I2" s="403"/>
-      <c r="J2" s="403"/>
-      <c r="K2" s="403"/>
-      <c r="L2" s="403"/>
-      <c r="M2" s="403"/>
-      <c r="N2" s="403"/>
-      <c r="O2" s="403"/>
-      <c r="P2" s="403"/>
-      <c r="Q2" s="403"/>
+      <c r="B2" s="402"/>
+      <c r="C2" s="402"/>
+      <c r="D2" s="402"/>
+      <c r="E2" s="402"/>
+      <c r="F2" s="402"/>
+      <c r="G2" s="402"/>
+      <c r="H2" s="402"/>
+      <c r="I2" s="402"/>
+      <c r="J2" s="402"/>
+      <c r="K2" s="402"/>
+      <c r="L2" s="402"/>
+      <c r="M2" s="402"/>
+      <c r="N2" s="402"/>
+      <c r="O2" s="402"/>
+      <c r="P2" s="402"/>
+      <c r="Q2" s="402"/>
     </row>
     <row r="3" spans="1:24" s="62" customFormat="1" ht="16.5" thickBot="1">
-      <c r="A3" s="404" t="s">
+      <c r="A3" s="403" t="s">
         <v>186</v>
       </c>
-      <c r="B3" s="405"/>
-      <c r="C3" s="405"/>
-      <c r="D3" s="405"/>
-      <c r="E3" s="405"/>
-      <c r="F3" s="405"/>
-      <c r="G3" s="405"/>
-      <c r="H3" s="405"/>
-      <c r="I3" s="405"/>
-      <c r="J3" s="405"/>
-      <c r="K3" s="405"/>
-      <c r="L3" s="405"/>
-      <c r="M3" s="405"/>
-      <c r="N3" s="405"/>
-      <c r="O3" s="405"/>
-      <c r="P3" s="405"/>
-      <c r="Q3" s="406"/>
+      <c r="B3" s="404"/>
+      <c r="C3" s="404"/>
+      <c r="D3" s="404"/>
+      <c r="E3" s="404"/>
+      <c r="F3" s="404"/>
+      <c r="G3" s="404"/>
+      <c r="H3" s="404"/>
+      <c r="I3" s="404"/>
+      <c r="J3" s="404"/>
+      <c r="K3" s="404"/>
+      <c r="L3" s="404"/>
+      <c r="M3" s="404"/>
+      <c r="N3" s="404"/>
+      <c r="O3" s="404"/>
+      <c r="P3" s="404"/>
+      <c r="Q3" s="405"/>
       <c r="S3" s="46"/>
       <c r="T3" s="7"/>
       <c r="U3" s="7"/>
@@ -6613,52 +6628,52 @@
       <c r="X3" s="16"/>
     </row>
     <row r="4" spans="1:24" s="63" customFormat="1" ht="12.75" customHeight="1">
-      <c r="A4" s="407" t="s">
+      <c r="A4" s="406" t="s">
         <v>27</v>
       </c>
-      <c r="B4" s="409" t="s">
+      <c r="B4" s="408" t="s">
         <v>28</v>
       </c>
-      <c r="C4" s="398" t="s">
+      <c r="C4" s="397" t="s">
         <v>29</v>
       </c>
-      <c r="D4" s="398" t="s">
+      <c r="D4" s="397" t="s">
         <v>30</v>
       </c>
-      <c r="E4" s="398" t="s">
+      <c r="E4" s="397" t="s">
         <v>31</v>
       </c>
-      <c r="F4" s="398" t="s">
+      <c r="F4" s="397" t="s">
         <v>227</v>
       </c>
-      <c r="G4" s="398" t="s">
+      <c r="G4" s="397" t="s">
         <v>32</v>
       </c>
-      <c r="H4" s="398" t="s">
+      <c r="H4" s="397" t="s">
         <v>163</v>
       </c>
-      <c r="I4" s="398" t="s">
+      <c r="I4" s="397" t="s">
         <v>162</v>
       </c>
-      <c r="J4" s="398" t="s">
+      <c r="J4" s="397" t="s">
         <v>33</v>
       </c>
-      <c r="K4" s="398" t="s">
+      <c r="K4" s="397" t="s">
         <v>34</v>
       </c>
-      <c r="L4" s="398" t="s">
+      <c r="L4" s="397" t="s">
         <v>106</v>
       </c>
-      <c r="M4" s="398" t="s">
+      <c r="M4" s="397" t="s">
         <v>223</v>
       </c>
-      <c r="N4" s="398" t="s">
+      <c r="N4" s="397" t="s">
         <v>35</v>
       </c>
-      <c r="O4" s="400" t="s">
+      <c r="O4" s="399" t="s">
         <v>115</v>
       </c>
-      <c r="P4" s="411" t="s">
+      <c r="P4" s="410" t="s">
         <v>130</v>
       </c>
       <c r="Q4" s="118" t="s">
@@ -6671,22 +6686,22 @@
       <c r="W4" s="65"/>
     </row>
     <row r="5" spans="1:24" s="63" customFormat="1" ht="13.5" thickBot="1">
-      <c r="A5" s="408"/>
-      <c r="B5" s="410"/>
-      <c r="C5" s="399"/>
-      <c r="D5" s="399"/>
-      <c r="E5" s="399"/>
-      <c r="F5" s="399"/>
-      <c r="G5" s="399"/>
-      <c r="H5" s="399"/>
-      <c r="I5" s="399"/>
-      <c r="J5" s="399"/>
-      <c r="K5" s="399"/>
-      <c r="L5" s="399"/>
-      <c r="M5" s="399"/>
-      <c r="N5" s="399"/>
-      <c r="O5" s="401"/>
-      <c r="P5" s="412"/>
+      <c r="A5" s="407"/>
+      <c r="B5" s="409"/>
+      <c r="C5" s="398"/>
+      <c r="D5" s="398"/>
+      <c r="E5" s="398"/>
+      <c r="F5" s="398"/>
+      <c r="G5" s="398"/>
+      <c r="H5" s="398"/>
+      <c r="I5" s="398"/>
+      <c r="J5" s="398"/>
+      <c r="K5" s="398"/>
+      <c r="L5" s="398"/>
+      <c r="M5" s="398"/>
+      <c r="N5" s="398"/>
+      <c r="O5" s="400"/>
+      <c r="P5" s="411"/>
       <c r="Q5" s="119" t="s">
         <v>36</v>
       </c>
@@ -9786,11 +9801,6 @@
     </row>
   </sheetData>
   <mergeCells count="19">
-    <mergeCell ref="I4:I5"/>
-    <mergeCell ref="J4:J5"/>
-    <mergeCell ref="K4:K5"/>
-    <mergeCell ref="L4:L5"/>
-    <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
     <mergeCell ref="A1:Q1"/>
@@ -9805,6 +9815,11 @@
     <mergeCell ref="P4:P5"/>
     <mergeCell ref="G4:G5"/>
     <mergeCell ref="H4:H5"/>
+    <mergeCell ref="I4:I5"/>
+    <mergeCell ref="J4:J5"/>
+    <mergeCell ref="K4:K5"/>
+    <mergeCell ref="L4:L5"/>
+    <mergeCell ref="M4:M5"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0" right="0" top="0.39370078740157483" bottom="0" header="0" footer="0"/>
@@ -9817,8 +9832,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:CR1357"/>
   <sheetViews>
-    <sheetView topLeftCell="A67" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="D72" sqref="D72:D73"/>
+    <sheetView topLeftCell="A25" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="D39" sqref="D39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75"/>
@@ -9844,14 +9859,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:96" ht="19.5">
-      <c r="A1" s="418" t="s">
+      <c r="A1" s="417" t="s">
         <v>14</v>
       </c>
-      <c r="B1" s="419"/>
-      <c r="C1" s="419"/>
-      <c r="D1" s="419"/>
-      <c r="E1" s="419"/>
-      <c r="F1" s="420"/>
+      <c r="B1" s="418"/>
+      <c r="C1" s="418"/>
+      <c r="D1" s="418"/>
+      <c r="E1" s="418"/>
+      <c r="F1" s="419"/>
       <c r="G1" s="56"/>
       <c r="H1" s="135"/>
       <c r="I1" s="135"/>
@@ -9944,14 +9959,14 @@
       <c r="CR1" s="130"/>
     </row>
     <row r="2" spans="1:96" ht="15" customHeight="1">
-      <c r="A2" s="421" t="s">
+      <c r="A2" s="420" t="s">
         <v>187</v>
       </c>
-      <c r="B2" s="422"/>
-      <c r="C2" s="422"/>
-      <c r="D2" s="422"/>
-      <c r="E2" s="422"/>
-      <c r="F2" s="423"/>
+      <c r="B2" s="421"/>
+      <c r="C2" s="421"/>
+      <c r="D2" s="421"/>
+      <c r="E2" s="421"/>
+      <c r="F2" s="422"/>
       <c r="G2" s="56"/>
       <c r="H2" s="135"/>
       <c r="I2" s="135"/>
@@ -10044,14 +10059,14 @@
       <c r="CR2" s="130"/>
     </row>
     <row r="3" spans="1:96" ht="13.5" thickBot="1">
-      <c r="A3" s="424" t="s">
+      <c r="A3" s="423" t="s">
         <v>61</v>
       </c>
-      <c r="B3" s="425"/>
-      <c r="C3" s="425"/>
-      <c r="D3" s="425"/>
-      <c r="E3" s="425"/>
-      <c r="F3" s="426"/>
+      <c r="B3" s="424"/>
+      <c r="C3" s="424"/>
+      <c r="D3" s="424"/>
+      <c r="E3" s="424"/>
+      <c r="F3" s="425"/>
       <c r="G3" s="56"/>
       <c r="H3" s="135"/>
       <c r="I3" s="135"/>
@@ -10144,13 +10159,13 @@
       <c r="CR3" s="130"/>
     </row>
     <row r="4" spans="1:96" ht="13.5" thickBot="1">
-      <c r="A4" s="354" t="s">
+      <c r="A4" s="353" t="s">
         <v>0</v>
       </c>
       <c r="B4" s="177" t="s">
         <v>15</v>
       </c>
-      <c r="C4" s="355" t="s">
+      <c r="C4" s="354" t="s">
         <v>16</v>
       </c>
       <c r="D4" s="177" t="s">
@@ -10159,7 +10174,7 @@
       <c r="E4" s="177" t="s">
         <v>18</v>
       </c>
-      <c r="F4" s="356" t="s">
+      <c r="F4" s="355" t="s">
         <v>1</v>
       </c>
       <c r="G4" s="56"/>
@@ -10254,19 +10269,19 @@
       <c r="CR4" s="130"/>
     </row>
     <row r="5" spans="1:96">
-      <c r="A5" s="352" t="s">
+      <c r="A5" s="351" t="s">
         <v>188</v>
       </c>
-      <c r="B5" s="353">
+      <c r="B5" s="352">
         <v>627320</v>
       </c>
       <c r="C5" s="184">
         <v>295135</v>
       </c>
-      <c r="D5" s="353">
+      <c r="D5" s="352">
         <v>1495</v>
       </c>
-      <c r="E5" s="353">
+      <c r="E5" s="352">
         <f>C5+D5</f>
         <v>296630</v>
       </c>
@@ -10597,7 +10612,7 @@
         <f t="shared" si="0"/>
         <v>232650</v>
       </c>
-      <c r="F8" s="347"/>
+      <c r="F8" s="346"/>
       <c r="G8" s="135"/>
       <c r="H8" s="140"/>
       <c r="I8" s="140"/>
@@ -10706,7 +10721,7 @@
         <f t="shared" si="0"/>
         <v>322670</v>
       </c>
-      <c r="F9" s="348"/>
+      <c r="F9" s="347"/>
       <c r="G9" s="135"/>
       <c r="H9" s="140"/>
       <c r="I9" s="140"/>
@@ -10815,7 +10830,7 @@
         <f t="shared" si="0"/>
         <v>355610</v>
       </c>
-      <c r="F10" s="349"/>
+      <c r="F10" s="348"/>
       <c r="G10" s="135"/>
       <c r="H10" s="140"/>
       <c r="I10" s="140"/>
@@ -10924,7 +10939,7 @@
         <f t="shared" si="0"/>
         <v>253240</v>
       </c>
-      <c r="F11" s="347"/>
+      <c r="F11" s="346"/>
       <c r="G11" s="140"/>
       <c r="H11" s="140"/>
       <c r="I11" s="140"/>
@@ -11033,7 +11048,7 @@
         <f t="shared" si="0"/>
         <v>488070</v>
       </c>
-      <c r="F12" s="347"/>
+      <c r="F12" s="346"/>
       <c r="G12" s="140"/>
       <c r="H12" s="140"/>
       <c r="I12" s="140"/>
@@ -11142,7 +11157,7 @@
         <f t="shared" si="0"/>
         <v>166550</v>
       </c>
-      <c r="F13" s="349"/>
+      <c r="F13" s="348"/>
       <c r="G13" s="135"/>
       <c r="H13" s="140"/>
       <c r="I13" s="140"/>
@@ -11251,7 +11266,7 @@
         <f t="shared" si="0"/>
         <v>433270</v>
       </c>
-      <c r="F14" s="348"/>
+      <c r="F14" s="347"/>
       <c r="G14" s="135"/>
       <c r="H14" s="140"/>
       <c r="I14" s="140"/>
@@ -11360,7 +11375,7 @@
         <f t="shared" si="0"/>
         <v>261460</v>
       </c>
-      <c r="F15" s="347"/>
+      <c r="F15" s="346"/>
       <c r="G15" s="140"/>
       <c r="H15" s="140"/>
       <c r="I15" s="140"/>
@@ -11469,7 +11484,7 @@
         <f t="shared" si="0"/>
         <v>392670</v>
       </c>
-      <c r="F16" s="347"/>
+      <c r="F16" s="346"/>
       <c r="G16" s="140"/>
       <c r="H16" s="140"/>
       <c r="I16" s="140"/>
@@ -11687,7 +11702,7 @@
         <f t="shared" si="0"/>
         <v>130790</v>
       </c>
-      <c r="F18" s="349"/>
+      <c r="F18" s="348"/>
       <c r="G18" s="135"/>
       <c r="H18" s="140"/>
       <c r="I18" s="140"/>
@@ -11796,7 +11811,7 @@
         <f>C19+D19</f>
         <v>234310</v>
       </c>
-      <c r="F19" s="348"/>
+      <c r="F19" s="347"/>
       <c r="G19" s="135"/>
       <c r="H19" s="140"/>
       <c r="I19" s="140"/>
@@ -12450,7 +12465,7 @@
         <f t="shared" si="0"/>
         <v>319320</v>
       </c>
-      <c r="F25" s="348"/>
+      <c r="F25" s="347"/>
       <c r="G25" s="135"/>
       <c r="H25" s="140"/>
       <c r="I25" s="140"/>
@@ -12559,7 +12574,7 @@
         <f t="shared" si="0"/>
         <v>174340</v>
       </c>
-      <c r="F26" s="350"/>
+      <c r="F26" s="349"/>
       <c r="G26" s="135"/>
       <c r="H26" s="140"/>
       <c r="I26" s="140"/>
@@ -12660,7 +12675,7 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F27" s="348"/>
+      <c r="F27" s="347"/>
       <c r="G27" s="135"/>
       <c r="H27" s="140"/>
       <c r="I27" s="140"/>
@@ -12761,7 +12776,7 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F28" s="348"/>
+      <c r="F28" s="347"/>
       <c r="G28" s="135"/>
       <c r="H28" s="140"/>
       <c r="I28" s="140"/>
@@ -12862,7 +12877,7 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F29" s="348"/>
+      <c r="F29" s="347"/>
       <c r="G29" s="135"/>
       <c r="H29" s="140"/>
       <c r="I29" s="140"/>
@@ -12963,7 +12978,7 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F30" s="347"/>
+      <c r="F30" s="346"/>
       <c r="G30" s="133"/>
       <c r="H30" s="152"/>
       <c r="I30" s="133"/>
@@ -13064,7 +13079,7 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F31" s="347"/>
+      <c r="F31" s="346"/>
       <c r="G31" s="133"/>
       <c r="H31" s="152"/>
       <c r="I31" s="153"/>
@@ -13165,7 +13180,7 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F32" s="351"/>
+      <c r="F32" s="350"/>
       <c r="G32" s="144"/>
       <c r="H32" s="132"/>
       <c r="I32" s="153"/>
@@ -13472,12 +13487,12 @@
     </row>
     <row r="35" spans="1:96" ht="13.5" thickBot="1">
       <c r="A35" s="125"/>
-      <c r="B35" s="415" t="s">
+      <c r="B35" s="414" t="s">
         <v>19</v>
       </c>
-      <c r="C35" s="415"/>
-      <c r="D35" s="415"/>
-      <c r="E35" s="415"/>
+      <c r="C35" s="414"/>
+      <c r="D35" s="414"/>
+      <c r="E35" s="414"/>
       <c r="F35" s="126"/>
       <c r="G35" s="131"/>
       <c r="H35" s="132"/>
@@ -13691,7 +13706,7 @@
       <c r="C37" s="120" t="s">
         <v>104</v>
       </c>
-      <c r="D37" s="333">
+      <c r="D37" s="332">
         <v>16000</v>
       </c>
       <c r="E37" s="305" t="s">
@@ -13907,7 +13922,7 @@
       <c r="C39" s="112" t="s">
         <v>177</v>
       </c>
-      <c r="D39" s="334">
+      <c r="D39" s="333">
         <v>28100</v>
       </c>
       <c r="E39" s="169" t="s">
@@ -14015,7 +14030,7 @@
       <c r="C40" s="112" t="s">
         <v>112</v>
       </c>
-      <c r="D40" s="334">
+      <c r="D40" s="333">
         <v>23000</v>
       </c>
       <c r="E40" s="168" t="s">
@@ -14320,25 +14335,25 @@
       <c r="CR42" s="130"/>
     </row>
     <row r="43" spans="1:96">
-      <c r="A43" s="376" t="s">
+      <c r="A43" s="370" t="s">
         <v>228</v>
       </c>
-      <c r="B43" s="377" t="s">
+      <c r="B43" s="371" t="s">
         <v>229</v>
       </c>
-      <c r="C43" s="378" t="s">
+      <c r="C43" s="372" t="s">
         <v>230</v>
       </c>
-      <c r="D43" s="379">
+      <c r="D43" s="373">
         <v>8000</v>
       </c>
-      <c r="E43" s="380" t="s">
+      <c r="E43" s="374" t="s">
         <v>237</v>
       </c>
       <c r="F43" s="126"/>
-      <c r="G43" s="416"/>
-      <c r="H43" s="416"/>
-      <c r="I43" s="416"/>
+      <c r="G43" s="415"/>
+      <c r="H43" s="415"/>
+      <c r="I43" s="415"/>
       <c r="J43" s="56"/>
       <c r="K43" s="135"/>
       <c r="L43" s="56"/>
@@ -17171,7 +17186,7 @@
         <v>69</v>
       </c>
       <c r="C68" s="270"/>
-      <c r="D68" s="386">
+      <c r="D68" s="379">
         <v>331480</v>
       </c>
       <c r="E68" s="273" t="s">
@@ -17290,7 +17305,7 @@
         <v>66</v>
       </c>
       <c r="C69" s="270"/>
-      <c r="D69" s="386">
+      <c r="D69" s="379">
         <v>296020</v>
       </c>
       <c r="E69" s="273" t="s">
@@ -17409,7 +17424,7 @@
         <v>79</v>
       </c>
       <c r="C70" s="270"/>
-      <c r="D70" s="386">
+      <c r="D70" s="379">
         <v>355840</v>
       </c>
       <c r="E70" s="273" t="s">
@@ -17518,7 +17533,7 @@
         <v>109</v>
       </c>
       <c r="C71" s="270"/>
-      <c r="D71" s="386">
+      <c r="D71" s="379">
         <v>40080</v>
       </c>
       <c r="E71" s="282" t="s">
@@ -17627,7 +17642,7 @@
         <v>105</v>
       </c>
       <c r="C72" s="270"/>
-      <c r="D72" s="386">
+      <c r="D72" s="379">
         <v>321030</v>
       </c>
       <c r="E72" s="272" t="s">
@@ -17736,7 +17751,7 @@
         <v>85</v>
       </c>
       <c r="C73" s="270"/>
-      <c r="D73" s="386">
+      <c r="D73" s="379">
         <v>255900</v>
       </c>
       <c r="E73" s="273" t="s">
@@ -22393,11 +22408,11 @@
       <c r="CR118" s="130"/>
     </row>
     <row r="119" spans="1:96" ht="13.5" thickBot="1">
-      <c r="A119" s="413" t="s">
+      <c r="A119" s="412" t="s">
         <v>25</v>
       </c>
-      <c r="B119" s="414"/>
-      <c r="C119" s="417"/>
+      <c r="B119" s="413"/>
+      <c r="C119" s="416"/>
       <c r="D119" s="202">
         <f>SUM(D37:D118)</f>
         <v>3725990</v>
@@ -22601,11 +22616,11 @@
       <c r="CR120" s="130"/>
     </row>
     <row r="121" spans="1:96" ht="13.5" thickBot="1">
-      <c r="A121" s="413" t="s">
+      <c r="A121" s="412" t="s">
         <v>26</v>
       </c>
-      <c r="B121" s="414"/>
-      <c r="C121" s="414"/>
+      <c r="B121" s="413"/>
+      <c r="C121" s="413"/>
       <c r="D121" s="202">
         <f>D119+L121</f>
         <v>3725990</v>
@@ -33710,8 +33725,8 @@
   </sheetPr>
   <dimension ref="A1:R217"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G14" sqref="G14"/>
+    <sheetView tabSelected="1" topLeftCell="E1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="Q12" sqref="Q12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75"/>
@@ -33730,32 +33745,35 @@
     <col min="12" max="12" width="10.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="13.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="10.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16384" width="9.140625" style="1"/>
+    <col min="15" max="16" width="9.140625" style="1"/>
+    <col min="17" max="17" width="13.140625" style="1" customWidth="1"/>
+    <col min="18" max="18" width="15.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:18" ht="26.25">
-      <c r="A1" s="446" t="s">
+      <c r="A1" s="426" t="s">
         <v>88</v>
       </c>
-      <c r="B1" s="447"/>
-      <c r="C1" s="447"/>
-      <c r="D1" s="447"/>
-      <c r="E1" s="448"/>
+      <c r="B1" s="427"/>
+      <c r="C1" s="427"/>
+      <c r="D1" s="427"/>
+      <c r="E1" s="428"/>
       <c r="F1" s="5"/>
       <c r="G1" s="5"/>
       <c r="H1" s="5"/>
-      <c r="I1" s="432"/>
-      <c r="J1" s="432"/>
-      <c r="K1" s="432"/>
+      <c r="I1" s="446"/>
+      <c r="J1" s="446"/>
+      <c r="K1" s="446"/>
     </row>
     <row r="2" spans="1:18" ht="20.25">
-      <c r="A2" s="455" t="s">
+      <c r="A2" s="435" t="s">
         <v>60</v>
       </c>
-      <c r="B2" s="456"/>
-      <c r="C2" s="456"/>
-      <c r="D2" s="456"/>
-      <c r="E2" s="457"/>
+      <c r="B2" s="436"/>
+      <c r="C2" s="436"/>
+      <c r="D2" s="436"/>
+      <c r="E2" s="437"/>
       <c r="F2" s="5"/>
       <c r="G2" s="5"/>
       <c r="H2" s="5"/>
@@ -33776,13 +33794,13 @@
       </c>
     </row>
     <row r="3" spans="1:18" ht="23.25">
-      <c r="A3" s="449" t="s">
+      <c r="A3" s="429" t="s">
         <v>256</v>
       </c>
-      <c r="B3" s="450"/>
-      <c r="C3" s="450"/>
-      <c r="D3" s="450"/>
-      <c r="E3" s="451"/>
+      <c r="B3" s="430"/>
+      <c r="C3" s="430"/>
+      <c r="D3" s="430"/>
+      <c r="E3" s="431"/>
       <c r="F3" s="5"/>
       <c r="G3" s="10"/>
       <c r="H3" s="10"/>
@@ -33809,13 +33827,13 @@
       <c r="R3" s="7"/>
     </row>
     <row r="4" spans="1:18" ht="23.25">
-      <c r="A4" s="458" t="s">
+      <c r="A4" s="438" t="s">
         <v>63</v>
       </c>
-      <c r="B4" s="459"/>
-      <c r="C4" s="459"/>
-      <c r="D4" s="459"/>
-      <c r="E4" s="460"/>
+      <c r="B4" s="439"/>
+      <c r="C4" s="439"/>
+      <c r="D4" s="439"/>
+      <c r="E4" s="440"/>
       <c r="F4" s="5"/>
       <c r="G4" s="41"/>
       <c r="H4" s="41"/>
@@ -33875,8 +33893,12 @@
       </c>
       <c r="O5" s="7"/>
       <c r="P5" s="7"/>
-      <c r="Q5" s="7"/>
-      <c r="R5" s="7"/>
+      <c r="Q5" s="388">
+        <v>40500</v>
+      </c>
+      <c r="R5" s="388" t="s">
+        <v>258</v>
+      </c>
     </row>
     <row r="6" spans="1:18" ht="21.75">
       <c r="A6" s="240" t="s">
@@ -33913,8 +33935,12 @@
       </c>
       <c r="N6" s="7"/>
       <c r="P6" s="7"/>
-      <c r="Q6" s="7"/>
-      <c r="R6" s="7"/>
+      <c r="Q6" s="388">
+        <v>35000</v>
+      </c>
+      <c r="R6" s="388" t="s">
+        <v>259</v>
+      </c>
     </row>
     <row r="7" spans="1:18" ht="21.75">
       <c r="A7" s="242"/>
@@ -33923,7 +33949,7 @@
       <c r="D7" s="38" t="s">
         <v>64</v>
       </c>
-      <c r="E7" s="373">
+      <c r="E7" s="367">
         <v>376869</v>
       </c>
       <c r="F7" s="7"/>
@@ -33949,14 +33975,18 @@
         <v>101</v>
       </c>
       <c r="P7" s="7"/>
-      <c r="Q7" s="7"/>
-      <c r="R7" s="7"/>
+      <c r="Q7" s="388">
+        <v>28100</v>
+      </c>
+      <c r="R7" s="388" t="s">
+        <v>260</v>
+      </c>
     </row>
     <row r="8" spans="1:18" ht="21.75">
       <c r="A8" s="240"/>
       <c r="B8" s="224"/>
       <c r="C8" s="38"/>
-      <c r="D8" s="374"/>
+      <c r="D8" s="368"/>
       <c r="E8" s="241"/>
       <c r="F8" s="7"/>
       <c r="G8" s="220"/>
@@ -33980,8 +34010,13 @@
       </c>
       <c r="O8" s="7"/>
       <c r="P8" s="7"/>
-      <c r="Q8" s="7"/>
-      <c r="R8" s="7"/>
+      <c r="Q8" s="468">
+        <f>SUM(Q5:Q7)</f>
+        <v>103600</v>
+      </c>
+      <c r="R8" s="308" t="s">
+        <v>4</v>
+      </c>
     </row>
     <row r="9" spans="1:18" ht="23.25">
       <c r="A9" s="240" t="s">
@@ -33991,7 +34026,7 @@
         <v>24415</v>
       </c>
       <c r="C9" s="39"/>
-      <c r="D9" s="374" t="s">
+      <c r="D9" s="368" t="s">
         <v>11</v>
       </c>
       <c r="E9" s="263">
@@ -34032,10 +34067,10 @@
         <v>23500</v>
       </c>
       <c r="C10" s="39"/>
-      <c r="D10" s="374" t="s">
+      <c r="D10" s="368" t="s">
         <v>240</v>
       </c>
-      <c r="E10" s="382">
+      <c r="E10" s="376">
         <v>-1178829</v>
       </c>
       <c r="F10" s="7"/>
@@ -34066,7 +34101,7 @@
       <c r="R10" s="7"/>
     </row>
     <row r="11" spans="1:18" ht="21.75">
-      <c r="A11" s="335" t="s">
+      <c r="A11" s="334" t="s">
         <v>108</v>
       </c>
       <c r="B11" s="327">
@@ -34172,10 +34207,10 @@
       <c r="R13" s="7"/>
     </row>
     <row r="14" spans="1:18" ht="21.75">
-      <c r="A14" s="467" t="s">
+      <c r="A14" s="391" t="s">
         <v>257</v>
       </c>
-      <c r="B14" s="468">
+      <c r="B14" s="392">
         <v>1000000</v>
       </c>
       <c r="C14" s="39"/>
@@ -34211,7 +34246,7 @@
       <c r="R14" s="7"/>
     </row>
     <row r="15" spans="1:18" ht="21.75">
-      <c r="A15" s="346"/>
+      <c r="A15" s="345"/>
       <c r="B15" s="314"/>
       <c r="C15" s="39"/>
       <c r="D15" s="312" t="s">
@@ -34286,11 +34321,11 @@
         <v>0</v>
       </c>
       <c r="H17" s="285"/>
-      <c r="I17" s="427" t="s">
+      <c r="I17" s="441" t="s">
         <v>140</v>
       </c>
-      <c r="J17" s="427"/>
-      <c r="K17" s="427"/>
+      <c r="J17" s="441"/>
+      <c r="K17" s="441"/>
       <c r="L17" s="323">
         <f>SUM(L3:L16)</f>
         <v>311650</v>
@@ -34313,11 +34348,11 @@
       <c r="F18" s="5"/>
       <c r="G18" s="9"/>
       <c r="H18" s="285"/>
-      <c r="I18" s="433" t="s">
+      <c r="I18" s="447" t="s">
         <v>99</v>
       </c>
-      <c r="J18" s="433"/>
-      <c r="K18" s="433"/>
+      <c r="J18" s="447"/>
+      <c r="K18" s="447"/>
       <c r="L18" s="31">
         <v>54000</v>
       </c>
@@ -34329,21 +34364,21 @@
       <c r="R18" s="7"/>
     </row>
     <row r="19" spans="1:18" ht="23.25" thickBot="1">
-      <c r="A19" s="452" t="s">
+      <c r="A19" s="432" t="s">
         <v>13</v>
       </c>
-      <c r="B19" s="453"/>
-      <c r="C19" s="453"/>
-      <c r="D19" s="453"/>
-      <c r="E19" s="454"/>
+      <c r="B19" s="433"/>
+      <c r="C19" s="433"/>
+      <c r="D19" s="433"/>
+      <c r="E19" s="434"/>
       <c r="F19" s="5"/>
       <c r="G19" s="8"/>
       <c r="H19" s="8"/>
-      <c r="I19" s="431" t="s">
+      <c r="I19" s="445" t="s">
         <v>176</v>
       </c>
-      <c r="J19" s="431"/>
-      <c r="K19" s="431"/>
+      <c r="J19" s="445"/>
+      <c r="K19" s="445"/>
       <c r="L19" s="31">
         <v>20000</v>
       </c>
@@ -34355,10 +34390,10 @@
       <c r="R19" s="7"/>
     </row>
     <row r="20" spans="1:18" ht="21.75" customHeight="1">
-      <c r="A20" s="359" t="s">
+      <c r="A20" s="358" t="s">
         <v>205</v>
       </c>
-      <c r="B20" s="361">
+      <c r="B20" s="360">
         <v>110000</v>
       </c>
       <c r="C20" s="247"/>
@@ -34371,11 +34406,11 @@
       <c r="F20" s="5"/>
       <c r="G20" s="16"/>
       <c r="H20" s="16"/>
-      <c r="I20" s="434" t="s">
+      <c r="I20" s="448" t="s">
         <v>144</v>
       </c>
-      <c r="J20" s="434"/>
-      <c r="K20" s="434"/>
+      <c r="J20" s="448"/>
+      <c r="K20" s="448"/>
       <c r="L20" s="31">
         <v>19500</v>
       </c>
@@ -34402,11 +34437,11 @@
       </c>
       <c r="G21" s="17"/>
       <c r="H21" s="17"/>
-      <c r="I21" s="435" t="s">
+      <c r="I21" s="449" t="s">
         <v>175</v>
       </c>
-      <c r="J21" s="436"/>
-      <c r="K21" s="437"/>
+      <c r="J21" s="450"/>
+      <c r="K21" s="451"/>
       <c r="L21" s="31">
         <v>30000</v>
       </c>
@@ -34431,15 +34466,15 @@
       <c r="E22" s="245">
         <v>355840</v>
       </c>
-      <c r="I22" s="431" t="s">
+      <c r="I22" s="445" t="s">
         <v>181</v>
       </c>
-      <c r="J22" s="431"/>
-      <c r="K22" s="431"/>
-      <c r="L22" s="367">
+      <c r="J22" s="445"/>
+      <c r="K22" s="445"/>
+      <c r="L22" s="365">
         <v>20000</v>
       </c>
-      <c r="M22" s="367"/>
+      <c r="M22" s="365"/>
       <c r="N22" s="7"/>
       <c r="O22" s="7"/>
       <c r="P22" s="7"/>
@@ -34460,15 +34495,15 @@
       <c r="E23" s="245">
         <v>55170</v>
       </c>
-      <c r="I23" s="428" t="s">
+      <c r="I23" s="442" t="s">
         <v>221</v>
       </c>
-      <c r="J23" s="429"/>
-      <c r="K23" s="430"/>
-      <c r="L23" s="367">
+      <c r="J23" s="443"/>
+      <c r="K23" s="444"/>
+      <c r="L23" s="365">
         <v>40000</v>
       </c>
-      <c r="M23" s="367"/>
+      <c r="M23" s="365"/>
       <c r="N23" s="7"/>
       <c r="O23" s="7"/>
       <c r="P23" s="7"/>
@@ -34476,10 +34511,10 @@
       <c r="R23" s="7"/>
     </row>
     <row r="24" spans="1:18" ht="21.75" customHeight="1">
-      <c r="A24" s="360" t="s">
+      <c r="A24" s="359" t="s">
         <v>213</v>
       </c>
-      <c r="B24" s="362">
+      <c r="B24" s="361">
         <v>89100</v>
       </c>
       <c r="C24" s="38"/>
@@ -34489,11 +34524,11 @@
       <c r="E24" s="311">
         <v>23000</v>
       </c>
-      <c r="I24" s="438"/>
-      <c r="J24" s="439"/>
-      <c r="K24" s="440"/>
-      <c r="L24" s="345"/>
-      <c r="M24" s="345"/>
+      <c r="I24" s="452"/>
+      <c r="J24" s="453"/>
+      <c r="K24" s="454"/>
+      <c r="L24" s="344"/>
+      <c r="M24" s="344"/>
       <c r="N24" s="7"/>
       <c r="O24" s="7"/>
       <c r="P24" s="7"/>
@@ -34514,11 +34549,11 @@
       <c r="E25" s="245">
         <v>15920</v>
       </c>
-      <c r="I25" s="427" t="s">
+      <c r="I25" s="441" t="s">
         <v>182</v>
       </c>
-      <c r="J25" s="427"/>
-      <c r="K25" s="427"/>
+      <c r="J25" s="441"/>
+      <c r="K25" s="441"/>
       <c r="L25" s="323">
         <f>L17-L18-L19-L20-L21-L22-L23-L24</f>
         <v>128150</v>
@@ -34584,15 +34619,13 @@
       <c r="E28" s="252">
         <v>300000</v>
       </c>
-      <c r="I28" s="445" t="s">
-        <v>131</v>
-      </c>
-      <c r="J28" s="445"/>
-      <c r="K28" s="445"/>
-      <c r="L28" s="332">
-        <v>213170</v>
-      </c>
-      <c r="M28" s="332"/>
+      <c r="I28" s="462" t="s">
+        <v>261</v>
+      </c>
+      <c r="J28" s="463"/>
+      <c r="K28" s="463"/>
+      <c r="L28" s="463"/>
+      <c r="M28" s="464"/>
       <c r="N28" s="7"/>
       <c r="O28" s="7"/>
       <c r="P28" s="7"/>
@@ -34613,11 +34646,15 @@
       <c r="E29" s="252">
         <v>200000</v>
       </c>
-      <c r="I29" s="370"/>
-      <c r="J29" s="371"/>
-      <c r="K29" s="372"/>
-      <c r="L29" s="383"/>
-      <c r="M29" s="383"/>
+      <c r="I29" s="465" t="s">
+        <v>131</v>
+      </c>
+      <c r="J29" s="465"/>
+      <c r="K29" s="466"/>
+      <c r="L29" s="467">
+        <v>213170</v>
+      </c>
+      <c r="M29" s="390"/>
       <c r="N29" s="7"/>
       <c r="O29" s="7"/>
       <c r="P29" s="7"/>
@@ -34625,10 +34662,10 @@
       <c r="R29" s="7"/>
     </row>
     <row r="30" spans="1:18" s="307" customFormat="1" ht="22.5" thickBot="1">
-      <c r="A30" s="391" t="s">
+      <c r="A30" s="384" t="s">
         <v>251</v>
       </c>
-      <c r="B30" s="392">
+      <c r="B30" s="385">
         <v>20900</v>
       </c>
       <c r="C30" s="320"/>
@@ -34638,11 +34675,17 @@
       <c r="E30" s="322">
         <v>40000</v>
       </c>
-      <c r="I30" s="370"/>
-      <c r="J30" s="371"/>
-      <c r="K30" s="372"/>
-      <c r="L30" s="368"/>
-      <c r="M30" s="368"/>
+      <c r="I30" s="455" t="s">
+        <v>167</v>
+      </c>
+      <c r="J30" s="448"/>
+      <c r="K30" s="448"/>
+      <c r="L30" s="389">
+        <v>79500</v>
+      </c>
+      <c r="M30" s="389" t="s">
+        <v>262</v>
+      </c>
       <c r="N30" s="7"/>
       <c r="O30" s="7"/>
       <c r="P30" s="7"/>
@@ -34654,15 +34697,15 @@
       <c r="B31" s="33"/>
       <c r="C31" s="5"/>
       <c r="D31" s="32"/>
-      <c r="I31" s="441" t="s">
+      <c r="I31" s="455" t="s">
         <v>167</v>
       </c>
-      <c r="J31" s="442"/>
-      <c r="K31" s="443"/>
-      <c r="L31" s="367">
+      <c r="J31" s="448"/>
+      <c r="K31" s="448"/>
+      <c r="L31" s="389">
         <v>47500</v>
       </c>
-      <c r="M31" s="367" t="s">
+      <c r="M31" s="389" t="s">
         <v>168</v>
       </c>
       <c r="N31" s="7"/>
@@ -34672,15 +34715,15 @@
       <c r="R31" s="7"/>
     </row>
     <row r="32" spans="1:18" ht="20.100000000000001" customHeight="1">
-      <c r="I32" s="444" t="s">
+      <c r="I32" s="455" t="s">
         <v>167</v>
       </c>
-      <c r="J32" s="444"/>
-      <c r="K32" s="444"/>
-      <c r="L32" s="367">
+      <c r="J32" s="448"/>
+      <c r="K32" s="448"/>
+      <c r="L32" s="389">
         <v>50000</v>
       </c>
-      <c r="M32" s="367" t="s">
+      <c r="M32" s="389" t="s">
         <v>170</v>
       </c>
       <c r="N32" s="7"/>
@@ -34691,11 +34734,11 @@
     </row>
     <row r="33" spans="2:18" ht="20.100000000000001" customHeight="1">
       <c r="E33" s="14"/>
-      <c r="I33" s="428"/>
-      <c r="J33" s="429"/>
-      <c r="K33" s="430"/>
-      <c r="L33" s="367"/>
-      <c r="M33" s="367"/>
+      <c r="I33" s="442"/>
+      <c r="J33" s="443"/>
+      <c r="K33" s="444"/>
+      <c r="L33" s="389"/>
+      <c r="M33" s="389"/>
       <c r="N33" s="7"/>
       <c r="O33" s="7"/>
       <c r="P33" s="7"/>
@@ -34703,16 +34746,16 @@
       <c r="R33" s="7"/>
     </row>
     <row r="34" spans="2:18" ht="20.100000000000001" customHeight="1">
-      <c r="I34" s="427" t="s">
+      <c r="I34" s="441" t="s">
         <v>100</v>
       </c>
-      <c r="J34" s="427"/>
-      <c r="K34" s="427"/>
-      <c r="L34" s="366" t="e">
-        <f>L28-#REF!-L31-L32</f>
-        <v>#REF!</v>
-      </c>
-      <c r="M34" s="366"/>
+      <c r="J34" s="441"/>
+      <c r="K34" s="441"/>
+      <c r="L34" s="387">
+        <f>L29-L30-L31-L32-L33</f>
+        <v>36170</v>
+      </c>
+      <c r="M34" s="387"/>
       <c r="N34" s="7"/>
       <c r="O34" s="7"/>
       <c r="P34" s="7"/>
@@ -37412,12 +37455,9 @@
   <sortState ref="D21:E30">
     <sortCondition ref="D20"/>
   </sortState>
-  <mergeCells count="20">
-    <mergeCell ref="A1:E1"/>
-    <mergeCell ref="A3:E3"/>
-    <mergeCell ref="A19:E19"/>
-    <mergeCell ref="A2:E2"/>
-    <mergeCell ref="A4:E4"/>
+  <mergeCells count="22">
+    <mergeCell ref="I29:K29"/>
+    <mergeCell ref="I30:K30"/>
     <mergeCell ref="I34:K34"/>
     <mergeCell ref="I33:K33"/>
     <mergeCell ref="I25:K25"/>
@@ -37432,7 +37472,12 @@
     <mergeCell ref="I24:K24"/>
     <mergeCell ref="I31:K31"/>
     <mergeCell ref="I32:K32"/>
-    <mergeCell ref="I28:K28"/>
+    <mergeCell ref="I28:M28"/>
+    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="A3:E3"/>
+    <mergeCell ref="A19:E19"/>
+    <mergeCell ref="A2:E2"/>
+    <mergeCell ref="A4:E4"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.94488188976377963" bottom="0" header="0" footer="0"/>
@@ -37466,10 +37511,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="24" thickBot="1">
-      <c r="A1" s="461" t="s">
+      <c r="A1" s="456" t="s">
         <v>155</v>
       </c>
-      <c r="B1" s="462"/>
+      <c r="B1" s="457"/>
       <c r="C1" s="254">
         <f>G10+C73</f>
         <v>239665</v>
@@ -37483,13 +37528,13 @@
       <c r="C2" s="257"/>
       <c r="D2" s="257"/>
       <c r="E2" s="257"/>
-      <c r="F2" s="339" t="s">
+      <c r="F2" s="338" t="s">
         <v>165</v>
       </c>
-      <c r="G2" s="340">
+      <c r="G2" s="339">
         <v>24755</v>
       </c>
-      <c r="H2" s="338" t="s">
+      <c r="H2" s="337" t="s">
         <v>174</v>
       </c>
     </row>
@@ -37506,20 +37551,20 @@
       <c r="D3" s="238" t="s">
         <v>90</v>
       </c>
-      <c r="F3" s="339" t="s">
+      <c r="F3" s="338" t="s">
         <v>161</v>
       </c>
-      <c r="G3" s="340">
+      <c r="G3" s="339">
         <v>19810</v>
       </c>
-      <c r="H3" s="338" t="s">
+      <c r="H3" s="337" t="s">
         <v>160</v>
       </c>
-      <c r="J3" s="465" t="s">
+      <c r="J3" s="460" t="s">
         <v>172</v>
       </c>
-      <c r="K3" s="465"/>
-      <c r="L3" s="465"/>
+      <c r="K3" s="460"/>
+      <c r="L3" s="460"/>
     </row>
     <row r="4" spans="1:12" ht="15">
       <c r="A4" s="24" t="s">
@@ -37528,21 +37573,21 @@
       <c r="B4" s="24" t="s">
         <v>189</v>
       </c>
-      <c r="C4" s="344">
+      <c r="C4" s="343">
         <v>10500</v>
       </c>
       <c r="D4" s="24"/>
       <c r="E4" s="61"/>
-      <c r="F4" s="339" t="s">
+      <c r="F4" s="338" t="s">
         <v>150</v>
       </c>
-      <c r="G4" s="340">
+      <c r="G4" s="339">
         <v>6000</v>
       </c>
-      <c r="H4" s="338" t="s">
+      <c r="H4" s="337" t="s">
         <v>149</v>
       </c>
-      <c r="I4" s="336"/>
+      <c r="I4" s="335"/>
       <c r="J4" s="325" t="s">
         <v>128</v>
       </c>
@@ -37554,27 +37599,27 @@
       </c>
     </row>
     <row r="5" spans="1:12" ht="15">
-      <c r="A5" s="357" t="s">
+      <c r="A5" s="356" t="s">
         <v>188</v>
       </c>
-      <c r="B5" s="357" t="s">
+      <c r="B5" s="356" t="s">
         <v>190</v>
       </c>
       <c r="C5" s="308">
         <v>1000</v>
       </c>
-      <c r="D5" s="357"/>
+      <c r="D5" s="356"/>
       <c r="E5" s="61"/>
-      <c r="F5" s="339" t="s">
+      <c r="F5" s="338" t="s">
         <v>150</v>
       </c>
-      <c r="G5" s="340">
+      <c r="G5" s="339">
         <v>6000</v>
       </c>
-      <c r="H5" s="338" t="s">
+      <c r="H5" s="337" t="s">
         <v>153</v>
       </c>
-      <c r="I5" s="336"/>
+      <c r="I5" s="335"/>
       <c r="J5" s="325" t="s">
         <v>127</v>
       </c>
@@ -37586,27 +37631,27 @@
       </c>
     </row>
     <row r="6" spans="1:12" ht="15">
-      <c r="A6" s="357" t="s">
+      <c r="A6" s="356" t="s">
         <v>188</v>
       </c>
-      <c r="B6" s="357" t="s">
+      <c r="B6" s="356" t="s">
         <v>191</v>
       </c>
       <c r="C6" s="308">
         <v>600</v>
       </c>
-      <c r="D6" s="357"/>
+      <c r="D6" s="356"/>
       <c r="E6" s="61"/>
-      <c r="F6" s="339" t="s">
+      <c r="F6" s="338" t="s">
         <v>150</v>
       </c>
-      <c r="G6" s="340">
+      <c r="G6" s="339">
         <v>6000</v>
       </c>
-      <c r="H6" s="338" t="s">
+      <c r="H6" s="337" t="s">
         <v>154</v>
       </c>
-      <c r="I6" s="336"/>
+      <c r="I6" s="335"/>
       <c r="J6" s="326" t="s">
         <v>128</v>
       </c>
@@ -37624,15 +37669,15 @@
       <c r="B7" s="24" t="s">
         <v>189</v>
       </c>
-      <c r="C7" s="344">
+      <c r="C7" s="343">
         <v>6000</v>
       </c>
       <c r="D7" s="24"/>
       <c r="E7" s="61"/>
-      <c r="F7" s="339"/>
-      <c r="G7" s="340"/>
-      <c r="H7" s="338"/>
-      <c r="I7" s="337"/>
+      <c r="F7" s="338"/>
+      <c r="G7" s="339"/>
+      <c r="H7" s="337"/>
+      <c r="I7" s="336"/>
       <c r="J7" s="326" t="s">
         <v>127</v>
       </c>
@@ -37650,18 +37695,18 @@
       <c r="B8" s="24" t="s">
         <v>189</v>
       </c>
-      <c r="C8" s="358">
+      <c r="C8" s="357">
         <v>5000</v>
       </c>
       <c r="D8" s="24"/>
       <c r="E8" s="61"/>
-      <c r="F8" s="363" t="s">
+      <c r="F8" s="362" t="s">
         <v>215</v>
       </c>
-      <c r="G8" s="364">
+      <c r="G8" s="363">
         <v>6500</v>
       </c>
-      <c r="H8" s="365" t="s">
+      <c r="H8" s="364" t="s">
         <v>225</v>
       </c>
       <c r="J8" s="326" t="s">
@@ -37681,18 +37726,18 @@
       <c r="B9" s="24" t="s">
         <v>189</v>
       </c>
-      <c r="C9" s="344">
+      <c r="C9" s="343">
         <v>6500</v>
       </c>
       <c r="D9" s="24"/>
       <c r="E9" s="61"/>
-      <c r="F9" s="363" t="s">
+      <c r="F9" s="362" t="s">
         <v>226</v>
       </c>
-      <c r="G9" s="364">
+      <c r="G9" s="363">
         <v>6000</v>
       </c>
-      <c r="H9" s="365" t="s">
+      <c r="H9" s="364" t="s">
         <v>225</v>
       </c>
       <c r="J9" s="325" t="s">
@@ -37712,19 +37757,19 @@
       <c r="B10" s="24" t="s">
         <v>189</v>
       </c>
-      <c r="C10" s="344">
+      <c r="C10" s="343">
         <v>7500</v>
       </c>
       <c r="D10" s="24"/>
       <c r="E10" s="61"/>
-      <c r="F10" s="341" t="s">
+      <c r="F10" s="340" t="s">
         <v>173</v>
       </c>
-      <c r="G10" s="341">
+      <c r="G10" s="340">
         <f>SUM(G2:G9)</f>
         <v>75065</v>
       </c>
-      <c r="H10" s="341"/>
+      <c r="H10" s="340"/>
       <c r="J10" s="325" t="s">
         <v>128</v>
       </c>
@@ -37742,7 +37787,7 @@
       <c r="B11" s="24" t="s">
         <v>189</v>
       </c>
-      <c r="C11" s="344">
+      <c r="C11" s="343">
         <v>7000</v>
       </c>
       <c r="D11" s="24"/>
@@ -37764,7 +37809,7 @@
       <c r="B12" s="24" t="s">
         <v>189</v>
       </c>
-      <c r="C12" s="344">
+      <c r="C12" s="343">
         <v>4500</v>
       </c>
       <c r="D12" s="24"/>
@@ -37786,7 +37831,7 @@
       <c r="B13" s="24" t="s">
         <v>189</v>
       </c>
-      <c r="C13" s="369">
+      <c r="C13" s="366">
         <v>24500</v>
       </c>
       <c r="D13" s="24"/>
@@ -37808,7 +37853,7 @@
       <c r="B14" s="24" t="s">
         <v>189</v>
       </c>
-      <c r="C14" s="375">
+      <c r="C14" s="369">
         <v>8500</v>
       </c>
       <c r="D14" s="24"/>
@@ -37830,16 +37875,16 @@
       <c r="B15" s="24" t="s">
         <v>189</v>
       </c>
-      <c r="C15" s="381">
+      <c r="C15" s="375">
         <v>18500</v>
       </c>
       <c r="D15" s="24"/>
       <c r="E15" s="61"/>
-      <c r="F15" s="466" t="s">
+      <c r="F15" s="461" t="s">
         <v>180</v>
       </c>
-      <c r="G15" s="466"/>
-      <c r="H15" s="466"/>
+      <c r="G15" s="461"/>
+      <c r="H15" s="461"/>
       <c r="J15" s="326" t="s">
         <v>145</v>
       </c>
@@ -37851,24 +37896,24 @@
       </c>
     </row>
     <row r="16" spans="1:12">
-      <c r="A16" s="357" t="s">
+      <c r="A16" s="356" t="s">
         <v>232</v>
       </c>
-      <c r="B16" s="357" t="s">
+      <c r="B16" s="356" t="s">
         <v>233</v>
       </c>
       <c r="C16" s="308">
         <v>1000</v>
       </c>
-      <c r="D16" s="357"/>
+      <c r="D16" s="356"/>
       <c r="E16" s="61"/>
-      <c r="F16" s="342" t="s">
+      <c r="F16" s="341" t="s">
         <v>128</v>
       </c>
-      <c r="G16" s="343">
+      <c r="G16" s="342">
         <v>51600</v>
       </c>
-      <c r="H16" s="342" t="s">
+      <c r="H16" s="341" t="s">
         <v>179</v>
       </c>
       <c r="J16" s="326" t="s">
@@ -37888,18 +37933,18 @@
       <c r="B17" s="24" t="s">
         <v>189</v>
       </c>
-      <c r="C17" s="344">
+      <c r="C17" s="343">
         <v>2000</v>
       </c>
       <c r="D17" s="24"/>
       <c r="E17" s="219"/>
-      <c r="F17" s="345" t="s">
+      <c r="F17" s="344" t="s">
         <v>128</v>
       </c>
-      <c r="G17" s="345">
+      <c r="G17" s="344">
         <v>78100</v>
       </c>
-      <c r="H17" s="345" t="s">
+      <c r="H17" s="344" t="s">
         <v>183</v>
       </c>
       <c r="J17" s="326" t="s">
@@ -37919,18 +37964,18 @@
       <c r="B18" s="24" t="s">
         <v>189</v>
       </c>
-      <c r="C18" s="384">
+      <c r="C18" s="377">
         <v>12500</v>
       </c>
       <c r="D18" s="24"/>
       <c r="E18" s="219"/>
-      <c r="F18" s="345" t="s">
+      <c r="F18" s="344" t="s">
         <v>127</v>
       </c>
-      <c r="G18" s="345">
+      <c r="G18" s="344">
         <v>9300</v>
       </c>
-      <c r="H18" s="345" t="s">
+      <c r="H18" s="344" t="s">
         <v>188</v>
       </c>
       <c r="J18" s="326" t="s">
@@ -37944,24 +37989,24 @@
       </c>
     </row>
     <row r="19" spans="1:12">
-      <c r="A19" s="357" t="s">
+      <c r="A19" s="356" t="s">
         <v>235</v>
       </c>
-      <c r="B19" s="357" t="s">
+      <c r="B19" s="356" t="s">
         <v>236</v>
       </c>
       <c r="C19" s="308">
         <v>500</v>
       </c>
-      <c r="D19" s="357"/>
+      <c r="D19" s="356"/>
       <c r="E19" s="219"/>
-      <c r="F19" s="345" t="s">
+      <c r="F19" s="344" t="s">
         <v>128</v>
       </c>
-      <c r="G19" s="345">
+      <c r="G19" s="344">
         <v>7700</v>
       </c>
-      <c r="H19" s="345" t="s">
+      <c r="H19" s="344" t="s">
         <v>188</v>
       </c>
       <c r="J19" s="325" t="s">
@@ -37981,18 +38026,18 @@
       <c r="B20" s="24" t="s">
         <v>189</v>
       </c>
-      <c r="C20" s="385">
+      <c r="C20" s="378">
         <v>5000</v>
       </c>
       <c r="D20" s="24"/>
       <c r="E20" s="219"/>
-      <c r="F20" s="345" t="s">
+      <c r="F20" s="344" t="s">
         <v>128</v>
       </c>
-      <c r="G20" s="345">
+      <c r="G20" s="344">
         <v>6000</v>
       </c>
-      <c r="H20" s="345" t="s">
+      <c r="H20" s="344" t="s">
         <v>188</v>
       </c>
       <c r="J20" s="328" t="s">
@@ -38012,18 +38057,18 @@
       <c r="B21" s="24" t="s">
         <v>189</v>
       </c>
-      <c r="C21" s="344">
+      <c r="C21" s="343">
         <v>4500</v>
       </c>
       <c r="D21" s="24"/>
       <c r="E21" s="219"/>
-      <c r="F21" s="345" t="s">
+      <c r="F21" s="344" t="s">
         <v>127</v>
       </c>
-      <c r="G21" s="345">
+      <c r="G21" s="344">
         <v>3200</v>
       </c>
-      <c r="H21" s="345" t="s">
+      <c r="H21" s="344" t="s">
         <v>214</v>
       </c>
       <c r="J21" s="329" t="s">
@@ -38043,18 +38088,18 @@
       <c r="B22" s="24" t="s">
         <v>189</v>
       </c>
-      <c r="C22" s="387">
+      <c r="C22" s="380">
         <v>7500</v>
       </c>
       <c r="D22" s="24"/>
       <c r="E22" s="219"/>
-      <c r="F22" s="345" t="s">
+      <c r="F22" s="344" t="s">
         <v>128</v>
       </c>
-      <c r="G22" s="345">
+      <c r="G22" s="344">
         <v>9900</v>
       </c>
-      <c r="H22" s="345" t="s">
+      <c r="H22" s="344" t="s">
         <v>214</v>
       </c>
       <c r="J22" s="326" t="s">
@@ -38074,18 +38119,18 @@
       <c r="B23" s="24" t="s">
         <v>189</v>
       </c>
-      <c r="C23" s="344">
+      <c r="C23" s="343">
         <v>5000</v>
       </c>
       <c r="D23" s="24"/>
       <c r="E23" s="219"/>
-      <c r="F23" s="345" t="s">
+      <c r="F23" s="344" t="s">
         <v>218</v>
       </c>
-      <c r="G23" s="345">
+      <c r="G23" s="344">
         <v>20200</v>
       </c>
-      <c r="H23" s="345" t="s">
+      <c r="H23" s="344" t="s">
         <v>214</v>
       </c>
       <c r="J23" s="330" t="s">
@@ -38105,18 +38150,18 @@
       <c r="B24" s="24" t="s">
         <v>189</v>
       </c>
-      <c r="C24" s="344">
+      <c r="C24" s="343">
         <v>3500</v>
       </c>
       <c r="D24" s="24"/>
       <c r="E24" s="219"/>
-      <c r="F24" s="345" t="s">
+      <c r="F24" s="344" t="s">
         <v>217</v>
       </c>
-      <c r="G24" s="345">
+      <c r="G24" s="344">
         <v>15200</v>
       </c>
-      <c r="H24" s="345" t="s">
+      <c r="H24" s="344" t="s">
         <v>216</v>
       </c>
       <c r="J24" s="326"/>
@@ -38130,18 +38175,18 @@
       <c r="B25" s="24" t="s">
         <v>189</v>
       </c>
-      <c r="C25" s="344">
+      <c r="C25" s="343">
         <v>7000</v>
       </c>
       <c r="D25" s="24"/>
       <c r="E25" s="219"/>
-      <c r="F25" s="345" t="s">
+      <c r="F25" s="344" t="s">
         <v>127</v>
       </c>
-      <c r="G25" s="345">
+      <c r="G25" s="344">
         <v>16100</v>
       </c>
-      <c r="H25" s="345" t="s">
+      <c r="H25" s="344" t="s">
         <v>216</v>
       </c>
       <c r="J25" s="324" t="s">
@@ -38160,18 +38205,18 @@
       <c r="B26" s="24" t="s">
         <v>189</v>
       </c>
-      <c r="C26" s="388">
+      <c r="C26" s="381">
         <v>8000</v>
       </c>
       <c r="D26" s="24"/>
       <c r="E26" s="219"/>
-      <c r="F26" s="345" t="s">
+      <c r="F26" s="344" t="s">
         <v>128</v>
       </c>
-      <c r="G26" s="345">
+      <c r="G26" s="344">
         <v>1700</v>
       </c>
-      <c r="H26" s="345" t="s">
+      <c r="H26" s="344" t="s">
         <v>220</v>
       </c>
     </row>
@@ -38182,18 +38227,18 @@
       <c r="B27" s="24" t="s">
         <v>189</v>
       </c>
-      <c r="C27" s="389">
+      <c r="C27" s="382">
         <v>3000</v>
       </c>
       <c r="D27" s="24"/>
       <c r="E27" s="219"/>
-      <c r="F27" s="345" t="s">
+      <c r="F27" s="344" t="s">
         <v>127</v>
       </c>
-      <c r="G27" s="345">
+      <c r="G27" s="344">
         <v>8100</v>
       </c>
-      <c r="H27" s="345" t="s">
+      <c r="H27" s="344" t="s">
         <v>225</v>
       </c>
     </row>
@@ -38204,18 +38249,18 @@
       <c r="B28" s="24" t="s">
         <v>189</v>
       </c>
-      <c r="C28" s="390">
+      <c r="C28" s="383">
         <v>1000</v>
       </c>
       <c r="D28" s="24"/>
       <c r="E28" s="219"/>
-      <c r="F28" s="345" t="s">
+      <c r="F28" s="344" t="s">
         <v>127</v>
       </c>
-      <c r="G28" s="345">
+      <c r="G28" s="344">
         <v>18700</v>
       </c>
-      <c r="H28" s="345" t="s">
+      <c r="H28" s="344" t="s">
         <v>234</v>
       </c>
     </row>
@@ -38226,89 +38271,89 @@
       <c r="B29" s="24" t="s">
         <v>189</v>
       </c>
-      <c r="C29" s="393">
+      <c r="C29" s="386">
         <v>4000</v>
       </c>
       <c r="D29" s="24"/>
       <c r="E29" s="219"/>
-      <c r="F29" s="345"/>
-      <c r="G29" s="345"/>
-      <c r="H29" s="345"/>
+      <c r="F29" s="344"/>
+      <c r="G29" s="344"/>
+      <c r="H29" s="344"/>
     </row>
     <row r="30" spans="1:12">
       <c r="A30" s="24"/>
       <c r="B30" s="24"/>
-      <c r="C30" s="344"/>
+      <c r="C30" s="343"/>
       <c r="D30" s="24"/>
       <c r="E30" s="219"/>
-      <c r="F30" s="345"/>
-      <c r="G30" s="345"/>
-      <c r="H30" s="345"/>
+      <c r="F30" s="344"/>
+      <c r="G30" s="344"/>
+      <c r="H30" s="344"/>
     </row>
     <row r="31" spans="1:12">
       <c r="A31" s="24"/>
       <c r="B31" s="24"/>
-      <c r="C31" s="344"/>
+      <c r="C31" s="343"/>
       <c r="D31" s="24"/>
       <c r="E31" s="219"/>
-      <c r="F31" s="345"/>
-      <c r="G31" s="345"/>
-      <c r="H31" s="345"/>
+      <c r="F31" s="344"/>
+      <c r="G31" s="344"/>
+      <c r="H31" s="344"/>
     </row>
     <row r="32" spans="1:12">
       <c r="A32" s="24"/>
       <c r="B32" s="24"/>
-      <c r="C32" s="344"/>
+      <c r="C32" s="343"/>
       <c r="D32" s="24"/>
       <c r="E32" s="219"/>
-      <c r="F32" s="345"/>
-      <c r="G32" s="345"/>
-      <c r="H32" s="345"/>
+      <c r="F32" s="344"/>
+      <c r="G32" s="344"/>
+      <c r="H32" s="344"/>
     </row>
     <row r="33" spans="1:8">
       <c r="A33" s="24"/>
       <c r="B33" s="24"/>
-      <c r="C33" s="344"/>
+      <c r="C33" s="343"/>
       <c r="D33" s="24"/>
       <c r="E33" s="219"/>
-      <c r="F33" s="345"/>
-      <c r="G33" s="345"/>
-      <c r="H33" s="345"/>
+      <c r="F33" s="344"/>
+      <c r="G33" s="344"/>
+      <c r="H33" s="344"/>
     </row>
     <row r="34" spans="1:8">
       <c r="A34" s="24"/>
       <c r="B34" s="24"/>
-      <c r="C34" s="344"/>
+      <c r="C34" s="343"/>
       <c r="D34" s="24"/>
       <c r="E34" s="219"/>
-      <c r="F34" s="345"/>
-      <c r="G34" s="345"/>
-      <c r="H34" s="345"/>
+      <c r="F34" s="344"/>
+      <c r="G34" s="344"/>
+      <c r="H34" s="344"/>
     </row>
     <row r="35" spans="1:8">
       <c r="A35" s="24"/>
       <c r="B35" s="24"/>
-      <c r="C35" s="344"/>
+      <c r="C35" s="343"/>
       <c r="D35" s="24"/>
       <c r="E35" s="61"/>
-      <c r="F35" s="345"/>
-      <c r="G35" s="345"/>
-      <c r="H35" s="345"/>
+      <c r="F35" s="344"/>
+      <c r="G35" s="344"/>
+      <c r="H35" s="344"/>
     </row>
     <row r="36" spans="1:8">
       <c r="A36" s="24"/>
       <c r="B36" s="24"/>
-      <c r="C36" s="344"/>
+      <c r="C36" s="343"/>
       <c r="D36" s="24"/>
       <c r="E36" s="219"/>
-      <c r="F36" s="345"/>
-      <c r="G36" s="345"/>
-      <c r="H36" s="345"/>
+      <c r="F36" s="344"/>
+      <c r="G36" s="344"/>
+      <c r="H36" s="344"/>
     </row>
     <row r="37" spans="1:8">
       <c r="A37" s="24"/>
       <c r="B37" s="24"/>
-      <c r="C37" s="344"/>
+      <c r="C37" s="343"/>
       <c r="D37" s="24"/>
       <c r="E37" s="61"/>
       <c r="F37" s="308" t="s">
@@ -38323,253 +38368,253 @@
     <row r="38" spans="1:8">
       <c r="A38" s="24"/>
       <c r="B38" s="24"/>
-      <c r="C38" s="344"/>
+      <c r="C38" s="343"/>
       <c r="D38" s="24"/>
       <c r="E38" s="219"/>
     </row>
     <row r="39" spans="1:8">
       <c r="A39" s="24"/>
       <c r="B39" s="24"/>
-      <c r="C39" s="344"/>
+      <c r="C39" s="343"/>
       <c r="D39" s="24"/>
       <c r="E39" s="219"/>
     </row>
     <row r="40" spans="1:8">
       <c r="A40" s="24"/>
       <c r="B40" s="24"/>
-      <c r="C40" s="344"/>
+      <c r="C40" s="343"/>
       <c r="D40" s="24"/>
       <c r="E40" s="219"/>
     </row>
     <row r="41" spans="1:8">
       <c r="A41" s="24"/>
       <c r="B41" s="24"/>
-      <c r="C41" s="344"/>
+      <c r="C41" s="343"/>
       <c r="D41" s="24"/>
       <c r="E41" s="219"/>
     </row>
     <row r="42" spans="1:8">
       <c r="A42" s="24"/>
       <c r="B42" s="24"/>
-      <c r="C42" s="344"/>
+      <c r="C42" s="343"/>
       <c r="D42" s="24"/>
       <c r="E42" s="219"/>
     </row>
     <row r="43" spans="1:8">
       <c r="A43" s="24"/>
       <c r="B43" s="24"/>
-      <c r="C43" s="344"/>
+      <c r="C43" s="343"/>
       <c r="D43" s="24"/>
       <c r="E43" s="303"/>
     </row>
     <row r="44" spans="1:8">
       <c r="A44" s="24"/>
       <c r="B44" s="24"/>
-      <c r="C44" s="344"/>
+      <c r="C44" s="343"/>
       <c r="D44" s="24"/>
       <c r="E44" s="303"/>
     </row>
     <row r="45" spans="1:8">
       <c r="A45" s="24"/>
       <c r="B45" s="24"/>
-      <c r="C45" s="344"/>
+      <c r="C45" s="343"/>
       <c r="D45" s="24"/>
       <c r="E45" s="303"/>
     </row>
     <row r="46" spans="1:8">
       <c r="A46" s="24"/>
       <c r="B46" s="24"/>
-      <c r="C46" s="344"/>
+      <c r="C46" s="343"/>
       <c r="D46" s="24"/>
       <c r="E46" s="303"/>
     </row>
     <row r="47" spans="1:8">
       <c r="A47" s="24"/>
       <c r="B47" s="24"/>
-      <c r="C47" s="344"/>
+      <c r="C47" s="343"/>
       <c r="D47" s="24"/>
       <c r="E47" s="303"/>
     </row>
     <row r="48" spans="1:8">
       <c r="A48" s="24"/>
       <c r="B48" s="24"/>
-      <c r="C48" s="344"/>
+      <c r="C48" s="343"/>
       <c r="D48" s="24"/>
       <c r="E48" s="303"/>
     </row>
     <row r="49" spans="1:5">
       <c r="A49" s="24"/>
       <c r="B49" s="24"/>
-      <c r="C49" s="344"/>
+      <c r="C49" s="343"/>
       <c r="D49" s="24"/>
       <c r="E49" s="303"/>
     </row>
     <row r="50" spans="1:5">
       <c r="A50" s="24"/>
       <c r="B50" s="24"/>
-      <c r="C50" s="344"/>
+      <c r="C50" s="343"/>
       <c r="D50" s="24"/>
       <c r="E50" s="303"/>
     </row>
     <row r="51" spans="1:5">
       <c r="A51" s="24"/>
       <c r="B51" s="24"/>
-      <c r="C51" s="344"/>
+      <c r="C51" s="343"/>
       <c r="D51" s="24"/>
       <c r="E51" s="303"/>
     </row>
     <row r="52" spans="1:5">
       <c r="A52" s="24"/>
       <c r="B52" s="24"/>
-      <c r="C52" s="344"/>
+      <c r="C52" s="343"/>
       <c r="D52" s="24"/>
       <c r="E52" s="303"/>
     </row>
     <row r="53" spans="1:5">
       <c r="A53" s="24"/>
       <c r="B53" s="24"/>
-      <c r="C53" s="344"/>
+      <c r="C53" s="343"/>
       <c r="D53" s="24"/>
       <c r="E53" s="303"/>
     </row>
     <row r="54" spans="1:5">
       <c r="A54" s="24"/>
       <c r="B54" s="24"/>
-      <c r="C54" s="344"/>
+      <c r="C54" s="343"/>
       <c r="D54" s="24"/>
       <c r="E54" s="303"/>
     </row>
     <row r="55" spans="1:5">
       <c r="A55" s="24"/>
       <c r="B55" s="24"/>
-      <c r="C55" s="344"/>
+      <c r="C55" s="343"/>
       <c r="D55" s="24"/>
       <c r="E55" s="303"/>
     </row>
     <row r="56" spans="1:5">
       <c r="A56" s="24"/>
       <c r="B56" s="24"/>
-      <c r="C56" s="344"/>
+      <c r="C56" s="343"/>
       <c r="D56" s="24"/>
       <c r="E56" s="303"/>
     </row>
     <row r="57" spans="1:5">
       <c r="A57" s="24"/>
       <c r="B57" s="24"/>
-      <c r="C57" s="344"/>
+      <c r="C57" s="343"/>
       <c r="D57" s="24"/>
       <c r="E57" s="303"/>
     </row>
     <row r="58" spans="1:5">
       <c r="A58" s="24"/>
       <c r="B58" s="24"/>
-      <c r="C58" s="344"/>
+      <c r="C58" s="343"/>
       <c r="D58" s="24"/>
       <c r="E58" s="303"/>
     </row>
     <row r="59" spans="1:5">
       <c r="A59" s="24"/>
       <c r="B59" s="24"/>
-      <c r="C59" s="344"/>
+      <c r="C59" s="343"/>
       <c r="D59" s="24"/>
       <c r="E59" s="303"/>
     </row>
     <row r="60" spans="1:5">
       <c r="A60" s="24"/>
       <c r="B60" s="24"/>
-      <c r="C60" s="344"/>
+      <c r="C60" s="343"/>
       <c r="D60" s="24"/>
       <c r="E60" s="303"/>
     </row>
     <row r="61" spans="1:5">
       <c r="A61" s="24"/>
       <c r="B61" s="24"/>
-      <c r="C61" s="344"/>
+      <c r="C61" s="343"/>
       <c r="D61" s="24"/>
       <c r="E61" s="303"/>
     </row>
     <row r="62" spans="1:5">
       <c r="A62" s="24"/>
       <c r="B62" s="24"/>
-      <c r="C62" s="344"/>
+      <c r="C62" s="343"/>
       <c r="D62" s="24"/>
       <c r="E62" s="303"/>
     </row>
     <row r="63" spans="1:5">
       <c r="A63" s="24"/>
       <c r="B63" s="24"/>
-      <c r="C63" s="344"/>
+      <c r="C63" s="343"/>
       <c r="D63" s="24"/>
       <c r="E63" s="303"/>
     </row>
     <row r="64" spans="1:5">
       <c r="A64" s="24"/>
       <c r="B64" s="24"/>
-      <c r="C64" s="344"/>
+      <c r="C64" s="343"/>
       <c r="D64" s="24"/>
       <c r="E64" s="303"/>
     </row>
     <row r="65" spans="1:5">
       <c r="A65" s="24"/>
       <c r="B65" s="24"/>
-      <c r="C65" s="344"/>
+      <c r="C65" s="343"/>
       <c r="D65" s="24"/>
       <c r="E65" s="303"/>
     </row>
     <row r="66" spans="1:5">
       <c r="A66" s="24"/>
       <c r="B66" s="24"/>
-      <c r="C66" s="344"/>
+      <c r="C66" s="343"/>
       <c r="D66" s="24"/>
       <c r="E66" s="303"/>
     </row>
     <row r="67" spans="1:5">
       <c r="A67" s="24"/>
       <c r="B67" s="24"/>
-      <c r="C67" s="344"/>
+      <c r="C67" s="343"/>
       <c r="D67" s="24"/>
       <c r="E67" s="303"/>
     </row>
     <row r="68" spans="1:5">
       <c r="A68" s="24"/>
       <c r="B68" s="24"/>
-      <c r="C68" s="344"/>
+      <c r="C68" s="343"/>
       <c r="D68" s="24"/>
       <c r="E68" s="303"/>
     </row>
     <row r="69" spans="1:5">
       <c r="A69" s="24"/>
       <c r="B69" s="24"/>
-      <c r="C69" s="344"/>
+      <c r="C69" s="343"/>
       <c r="D69" s="24"/>
       <c r="E69" s="303"/>
     </row>
     <row r="70" spans="1:5">
       <c r="A70" s="24"/>
       <c r="B70" s="24"/>
-      <c r="C70" s="344"/>
+      <c r="C70" s="343"/>
       <c r="D70" s="24"/>
       <c r="E70" s="303"/>
     </row>
     <row r="71" spans="1:5">
       <c r="A71" s="24"/>
       <c r="B71" s="24"/>
-      <c r="C71" s="344"/>
+      <c r="C71" s="343"/>
       <c r="D71" s="24"/>
       <c r="E71" s="303"/>
     </row>
     <row r="72" spans="1:5">
       <c r="A72" s="24"/>
       <c r="B72" s="24"/>
-      <c r="C72" s="344"/>
+      <c r="C72" s="343"/>
       <c r="D72" s="24"/>
       <c r="E72" s="303"/>
     </row>
     <row r="73" spans="1:5">
-      <c r="A73" s="463" t="s">
+      <c r="A73" s="458" t="s">
         <v>74</v>
       </c>
-      <c r="B73" s="464"/>
+      <c r="B73" s="459"/>
       <c r="C73" s="283">
         <f>SUM(C4:C72)</f>
         <v>164600</v>
